--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_2.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_2.xlsx
@@ -496,28 +496,28 @@
         <v>0.0125</v>
       </c>
       <c r="H2" t="n">
-        <v>380.633941317371</v>
+        <v>305.958941322087</v>
       </c>
       <c r="I2" t="n">
-        <v>321.252929700146</v>
+        <v>219.986816410931</v>
       </c>
       <c r="J2" t="n">
-        <v>285.469947280774</v>
+        <v>172.032128026305</v>
       </c>
       <c r="K2" t="n">
-        <v>260.868063378937</v>
+        <v>143.781143146268</v>
       </c>
       <c r="L2" t="n">
-        <v>243.327424603391</v>
+        <v>125.127863454262</v>
       </c>
       <c r="M2" t="n">
-        <v>230.515949118376</v>
+        <v>111.924950718939</v>
       </c>
       <c r="N2" t="n">
-        <v>220.908326779107</v>
+        <v>102.155619670662</v>
       </c>
       <c r="O2" t="n">
-        <v>213.507079985402</v>
+        <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
@@ -543,28 +543,28 @@
         <v>0.0125</v>
       </c>
       <c r="H3" t="n">
-        <v>370.268314997684</v>
+        <v>320.230815000711</v>
       </c>
       <c r="I3" t="n">
-        <v>302.709541664996</v>
+        <v>234.886769975759</v>
       </c>
       <c r="J3" t="n">
-        <v>260.336206438901</v>
+        <v>184.516741111159</v>
       </c>
       <c r="K3" t="n">
-        <v>231.522003931267</v>
+        <v>153.477532364993</v>
       </c>
       <c r="L3" t="n">
-        <v>211.442562841871</v>
+        <v>132.784947783905</v>
       </c>
       <c r="M3" t="n">
-        <v>197.08414020971</v>
+        <v>118.233936086707</v>
       </c>
       <c r="N3" t="n">
-        <v>186.486439487899</v>
+        <v>107.566109931883</v>
       </c>
       <c r="O3" t="n">
-        <v>178.414487830406</v>
+        <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
@@ -590,28 +590,28 @@
         <v>0.0125</v>
       </c>
       <c r="H4" t="n">
-        <v>355.847103355036</v>
+        <v>330.83460335654</v>
       </c>
       <c r="I4" t="n">
-        <v>276.64457628707</v>
+        <v>242.607747121165</v>
       </c>
       <c r="J4" t="n">
-        <v>226.362807319808</v>
+        <v>188.575514578095</v>
       </c>
       <c r="K4" t="n">
-        <v>193.296123418659</v>
+        <v>154.598681934824</v>
       </c>
       <c r="L4" t="n">
-        <v>170.944975776293</v>
+        <v>132.033821271404</v>
       </c>
       <c r="M4" t="n">
-        <v>155.30882968239</v>
+        <v>116.341275831496</v>
       </c>
       <c r="N4" t="n">
-        <v>143.941314505457</v>
+        <v>104.956497497692</v>
       </c>
       <c r="O4" t="n">
-        <v>135.37479194669</v>
+        <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
@@ -637,28 +637,28 @@
         <v>0.0125</v>
       </c>
       <c r="H5" t="n">
-        <v>350.841762966168</v>
+        <v>276.166762970885</v>
       </c>
       <c r="I5" t="n">
-        <v>265.946736437144</v>
+        <v>161.41899700805</v>
       </c>
       <c r="J5" t="n">
-        <v>216.582947965064</v>
+        <v>100.959508575313</v>
       </c>
       <c r="K5" t="n">
-        <v>185.171889754022</v>
+        <v>66.9821020354688</v>
       </c>
       <c r="L5" t="n">
-        <v>164.049970000607</v>
+        <v>45.2686976209134</v>
       </c>
       <c r="M5" t="n">
-        <v>149.190830605139</v>
+        <v>30.260054230837</v>
       </c>
       <c r="N5" t="n">
-        <v>138.321446919402</v>
+        <v>19.3476709425518</v>
       </c>
       <c r="O5" t="n">
-        <v>130.09480563981</v>
+        <v>11.1067743893329</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.0125</v>
       </c>
       <c r="H6" t="n">
-        <v>343.224346281674</v>
+        <v>293.1868462847</v>
       </c>
       <c r="I6" t="n">
-        <v>251.721626006519</v>
+        <v>182.016579273066</v>
       </c>
       <c r="J6" t="n">
-        <v>197.273842489868</v>
+        <v>120.254267578413</v>
       </c>
       <c r="K6" t="n">
-        <v>162.848119894713</v>
+        <v>84.2739208470969</v>
       </c>
       <c r="L6" t="n">
-        <v>140.087416387134</v>
+        <v>61.1937751432458</v>
       </c>
       <c r="M6" t="n">
-        <v>124.344709553092</v>
+        <v>45.377526084738</v>
       </c>
       <c r="N6" t="n">
-        <v>112.974769255627</v>
+        <v>33.9876014729822</v>
       </c>
       <c r="O6" t="n">
-        <v>104.442524955083</v>
+        <v>25.4488409393044</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.0125</v>
       </c>
       <c r="H7" t="n">
-        <v>332.668573604037</v>
+        <v>307.656073605541</v>
       </c>
       <c r="I7" t="n">
-        <v>232.084556589221</v>
+        <v>197.36250145535</v>
       </c>
       <c r="J7" t="n">
-        <v>172.076569558569</v>
+        <v>133.891524453198</v>
       </c>
       <c r="K7" t="n">
-        <v>135.023467817805</v>
+        <v>96.1812803586853</v>
       </c>
       <c r="L7" t="n">
-        <v>111.042666608527</v>
+        <v>72.0802889403447</v>
       </c>
       <c r="M7" t="n">
-        <v>94.6947399052476</v>
+        <v>55.706710379565</v>
       </c>
       <c r="N7" t="n">
-        <v>82.9907881312212</v>
+        <v>43.9959144648564</v>
       </c>
       <c r="O7" t="n">
-        <v>74.2532758820862</v>
+        <v>35.2560581493574</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.0125</v>
       </c>
       <c r="H8" t="n">
-        <v>287.050807899019</v>
+        <v>212.375807903736</v>
       </c>
       <c r="I8" t="n">
-        <v>179.767919176482</v>
+        <v>77.5162589672474</v>
       </c>
       <c r="J8" t="n">
-        <v>100.050397638173</v>
+        <v>-14.045689195886</v>
       </c>
       <c r="K8" t="n">
-        <v>53.3087599336789</v>
+        <v>-63.8454676587368</v>
       </c>
       <c r="L8" t="n">
-        <v>25.7601678203977</v>
+        <v>-92.347964039085</v>
       </c>
       <c r="M8" t="n">
-        <v>8.0567245171185</v>
+        <v>-110.433937714629</v>
       </c>
       <c r="N8" t="n">
-        <v>-4.19834346635809</v>
+        <v>-122.871388609178</v>
       </c>
       <c r="O8" t="n">
-        <v>-13.1683412913344</v>
+        <v>-131.938972723872</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.0125</v>
       </c>
       <c r="H9" t="n">
-        <v>284.309068664709</v>
+        <v>234.271568667736</v>
       </c>
       <c r="I9" t="n">
-        <v>175.453346960936</v>
+        <v>107.988579265978</v>
       </c>
       <c r="J9" t="n">
-        <v>94.2252136187108</v>
+        <v>18.5460497754398</v>
       </c>
       <c r="K9" t="n">
-        <v>46.2838260937278</v>
+        <v>-31.5713942997207</v>
       </c>
       <c r="L9" t="n">
-        <v>17.8339156031122</v>
+        <v>-60.6615492677588</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.533947600645998</v>
+        <v>-79.2647430206882</v>
       </c>
       <c r="N9" t="n">
-        <v>-13.2794063575601</v>
+        <v>-92.1146861106535</v>
       </c>
       <c r="O9" t="n">
-        <v>-22.6152131091167</v>
+        <v>-101.504070488222</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.0125</v>
       </c>
       <c r="H10" t="n">
-        <v>280.44365730347</v>
+        <v>255.431157304974</v>
       </c>
       <c r="I10" t="n">
-        <v>169.023528395556</v>
+        <v>135.813055843614</v>
       </c>
       <c r="J10" t="n">
-        <v>85.443527744122</v>
+        <v>48.0748494497129</v>
       </c>
       <c r="K10" t="n">
-        <v>35.8750588139051</v>
+        <v>-2.59544164514419</v>
       </c>
       <c r="L10" t="n">
-        <v>6.37218972419477</v>
+        <v>-32.3977568239551</v>
       </c>
       <c r="M10" t="n">
-        <v>-12.6692983807168</v>
+        <v>-51.5410125284338</v>
       </c>
       <c r="N10" t="n">
-        <v>-25.8515364658283</v>
+        <v>-64.7679936149297</v>
       </c>
       <c r="O10" t="n">
-        <v>-35.4774953631028</v>
+        <v>-74.4183693074558</v>
       </c>
     </row>
     <row r="11">
@@ -1021,28 +1021,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>123.413467761943</v>
+        <v>48.7384677666593</v>
       </c>
       <c r="H2" t="n">
-        <v>196.900529639046</v>
+        <v>95.6344163498311</v>
       </c>
       <c r="I2" t="n">
-        <v>254.480055366507</v>
+        <v>141.042236112038</v>
       </c>
       <c r="J2" t="n">
-        <v>283.461340854662</v>
+        <v>166.374420621993</v>
       </c>
       <c r="K2" t="n">
-        <v>297.066265186449</v>
+        <v>178.86670403732</v>
       </c>
       <c r="L2" t="n">
-        <v>304.014328967341</v>
+        <v>185.423330567905</v>
       </c>
       <c r="M2" t="n">
-        <v>307.928526413252</v>
+        <v>189.175819304807</v>
       </c>
       <c r="N2" t="n">
-        <v>310.325836170511</v>
+        <v>191.49661822277</v>
       </c>
     </row>
     <row r="3">
@@ -1065,28 +1065,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>113.047841442257</v>
+        <v>63.0103414452833</v>
       </c>
       <c r="H3" t="n">
-        <v>178.357141603896</v>
+        <v>110.534369914659</v>
       </c>
       <c r="I3" t="n">
-        <v>229.346314524635</v>
+        <v>153.526849196892</v>
       </c>
       <c r="J3" t="n">
-        <v>254.115281406992</v>
+        <v>176.070809840718</v>
       </c>
       <c r="K3" t="n">
-        <v>265.181403424928</v>
+        <v>186.523788366962</v>
       </c>
       <c r="L3" t="n">
-        <v>270.582520058676</v>
+        <v>191.732315935673</v>
       </c>
       <c r="M3" t="n">
-        <v>273.506639122043</v>
+        <v>194.586309566028</v>
       </c>
       <c r="N3" t="n">
-        <v>275.233244015516</v>
+        <v>196.283890100564</v>
       </c>
     </row>
     <row r="4">
@@ -1109,28 +1109,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>98.6266297996078</v>
+        <v>73.6141298011119</v>
       </c>
       <c r="H4" t="n">
-        <v>152.292176225969</v>
+        <v>118.255347060064</v>
       </c>
       <c r="I4" t="n">
-        <v>195.372915405541</v>
+        <v>157.585622663829</v>
       </c>
       <c r="J4" t="n">
-        <v>215.889400894384</v>
+        <v>177.191959410549</v>
       </c>
       <c r="K4" t="n">
-        <v>224.683816359351</v>
+        <v>185.772661854462</v>
       </c>
       <c r="L4" t="n">
-        <v>228.807209531355</v>
+        <v>189.839655680462</v>
       </c>
       <c r="M4" t="n">
-        <v>230.961514139601</v>
+        <v>191.976697131837</v>
       </c>
       <c r="N4" t="n">
-        <v>232.1935481318</v>
+        <v>193.202523601104</v>
       </c>
     </row>
     <row r="5">
@@ -1153,28 +1153,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>93.6212894107406</v>
+        <v>18.9462894154569</v>
       </c>
       <c r="H5" t="n">
-        <v>141.594336376044</v>
+        <v>37.0665969469494</v>
       </c>
       <c r="I5" t="n">
-        <v>185.593056050798</v>
+        <v>69.9696166610458</v>
       </c>
       <c r="J5" t="n">
-        <v>207.765167229747</v>
+        <v>89.5753795111941</v>
       </c>
       <c r="K5" t="n">
-        <v>217.788810583664</v>
+        <v>99.0075382039711</v>
       </c>
       <c r="L5" t="n">
-        <v>222.689210454105</v>
+        <v>103.758434079803</v>
       </c>
       <c r="M5" t="n">
-        <v>225.341646553546</v>
+        <v>106.367870576697</v>
       </c>
       <c r="N5" t="n">
-        <v>226.913561824919</v>
+        <v>107.925530574442</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>86.0038727262462</v>
+        <v>35.9663727292728</v>
       </c>
       <c r="H6" t="n">
-        <v>127.369225945419</v>
+        <v>57.6641792119662</v>
       </c>
       <c r="I6" t="n">
-        <v>166.283950575601</v>
+        <v>89.2643756641462</v>
       </c>
       <c r="J6" t="n">
-        <v>185.441397370438</v>
+        <v>106.867198322822</v>
       </c>
       <c r="K6" t="n">
-        <v>193.826256970192</v>
+        <v>114.932615726303</v>
       </c>
       <c r="L6" t="n">
-        <v>197.843089402058</v>
+        <v>118.875905933704</v>
       </c>
       <c r="M6" t="n">
-        <v>199.994968889772</v>
+        <v>121.007801107127</v>
       </c>
       <c r="N6" t="n">
-        <v>201.261281140192</v>
+        <v>122.267597124414</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>75.4481000486094</v>
+        <v>50.4356000501135</v>
       </c>
       <c r="H7" t="n">
-        <v>107.732156528121</v>
+        <v>73.0101013942496</v>
       </c>
       <c r="I7" t="n">
-        <v>141.086677644302</v>
+        <v>102.901632538931</v>
       </c>
       <c r="J7" t="n">
-        <v>157.61674529353</v>
+        <v>118.774557834411</v>
       </c>
       <c r="K7" t="n">
-        <v>164.781507191585</v>
+        <v>125.819129523402</v>
       </c>
       <c r="L7" t="n">
-        <v>168.193119754213</v>
+        <v>129.205090228531</v>
       </c>
       <c r="M7" t="n">
-        <v>170.010987765366</v>
+        <v>131.016114099001</v>
       </c>
       <c r="N7" t="n">
-        <v>171.072032067195</v>
+        <v>132.074814334467</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>29.8303343435916</v>
+        <v>-44.8446656516921</v>
       </c>
       <c r="H8" t="n">
-        <v>55.4155191153822</v>
+        <v>-46.8361410938528</v>
       </c>
       <c r="I8" t="n">
-        <v>69.0605057239065</v>
+        <v>-45.0355811101528</v>
       </c>
       <c r="J8" t="n">
-        <v>75.9020374094042</v>
+        <v>-41.2521901830115</v>
       </c>
       <c r="K8" t="n">
-        <v>79.4990084034554</v>
+        <v>-38.6091234560273</v>
       </c>
       <c r="L8" t="n">
-        <v>81.5551043660841</v>
+        <v>-36.9355578656631</v>
       </c>
       <c r="M8" t="n">
-        <v>82.8218561677867</v>
+        <v>-35.8511889750334</v>
       </c>
       <c r="N8" t="n">
-        <v>83.6504148937748</v>
+        <v>-35.1202165387623</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>27.0885951092812</v>
+        <v>-22.9489048876922</v>
       </c>
       <c r="H9" t="n">
-        <v>51.1009468998355</v>
+        <v>-16.3638207951224</v>
       </c>
       <c r="I9" t="n">
-        <v>63.235321704444</v>
+        <v>-12.443842138827</v>
       </c>
       <c r="J9" t="n">
-        <v>68.8771035694531</v>
+        <v>-8.9781168239954</v>
       </c>
       <c r="K9" t="n">
-        <v>71.5727561861699</v>
+        <v>-6.92270868470105</v>
       </c>
       <c r="L9" t="n">
-        <v>72.9644322483196</v>
+        <v>-5.76636317172253</v>
       </c>
       <c r="M9" t="n">
-        <v>73.7407932765848</v>
+        <v>-5.09448647650869</v>
       </c>
       <c r="N9" t="n">
-        <v>74.2035430759925</v>
+        <v>-4.68531430311303</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>23.2231837480419</v>
+        <v>-1.78931625045402</v>
       </c>
       <c r="H10" t="n">
-        <v>44.6711283344554</v>
+        <v>11.4606557825138</v>
       </c>
       <c r="I10" t="n">
-        <v>54.4536358298552</v>
+        <v>17.0849575354461</v>
       </c>
       <c r="J10" t="n">
-        <v>58.4683362896304</v>
+        <v>19.9978358305811</v>
       </c>
       <c r="K10" t="n">
-        <v>60.1110303072525</v>
+        <v>21.3410837591026</v>
       </c>
       <c r="L10" t="n">
-        <v>60.8290814682488</v>
+        <v>21.9573673205318</v>
       </c>
       <c r="M10" t="n">
-        <v>61.1686631683165</v>
+        <v>22.2522060192151</v>
       </c>
       <c r="N10" t="n">
-        <v>61.3412608220064</v>
+        <v>22.4003868776534</v>
       </c>
     </row>
     <row r="11">
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.479796440991113</v>
+        <v>0.189481292421914</v>
       </c>
       <c r="H2" t="n">
-        <v>1.58340755419517</v>
+        <v>0.769059674785861</v>
       </c>
       <c r="I2" t="n">
-        <v>8.21171161456527</v>
+        <v>4.55123356035671</v>
       </c>
       <c r="J2" t="n">
-        <v>12.5462691793707</v>
+        <v>7.36389046700948</v>
       </c>
       <c r="K2" t="n">
-        <v>5.52796193522837</v>
+        <v>3.3284436749406</v>
       </c>
       <c r="L2" t="n">
-        <v>4.13634055052738</v>
+        <v>2.52282201252514</v>
       </c>
       <c r="M2" t="n">
-        <v>3.53858676155493</v>
+        <v>2.17392996224038</v>
       </c>
       <c r="N2" t="n">
-        <v>3.20522436352306</v>
+        <v>1.97788760946944</v>
       </c>
     </row>
     <row r="3">
@@ -1563,28 +1563,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.439497835765769</v>
+        <v>0.244966275717961</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43428789083492</v>
+        <v>0.888880068742929</v>
       </c>
       <c r="I3" t="n">
-        <v>7.40068133051637</v>
+        <v>4.95409437443739</v>
       </c>
       <c r="J3" t="n">
-        <v>11.2473846116403</v>
+        <v>7.79306189772123</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9346320193691</v>
+        <v>3.47093064054248</v>
       </c>
       <c r="L3" t="n">
-        <v>3.68147598103122</v>
+        <v>2.60866044026644</v>
       </c>
       <c r="M3" t="n">
-        <v>3.14302472612032</v>
+        <v>2.23610506967484</v>
       </c>
       <c r="N3" t="n">
-        <v>2.84276781545606</v>
+        <v>2.02733331675203</v>
       </c>
     </row>
     <row r="4">
@@ -1607,28 +1607,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.383432268964994</v>
+        <v>0.286190787162395</v>
       </c>
       <c r="H4" t="n">
-        <v>1.22468224297352</v>
+        <v>0.950969559107504</v>
       </c>
       <c r="I4" t="n">
-        <v>6.30440777096085</v>
+        <v>5.08506525610956</v>
       </c>
       <c r="J4" t="n">
-        <v>9.5554706981464</v>
+        <v>7.8426850465112</v>
       </c>
       <c r="K4" t="n">
-        <v>4.18103207887568</v>
+        <v>3.45695329186225</v>
       </c>
       <c r="L4" t="n">
-        <v>3.11309188041341</v>
+        <v>2.58290939297669</v>
       </c>
       <c r="M4" t="n">
-        <v>2.65411381622454</v>
+        <v>2.20611648719442</v>
       </c>
       <c r="N4" t="n">
-        <v>2.39822899281897</v>
+        <v>1.99550718490658</v>
       </c>
     </row>
     <row r="5">
@@ -1651,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.363972929979722</v>
+        <v>0.0736577814105229</v>
       </c>
       <c r="H5" t="n">
-        <v>1.13865382820494</v>
+        <v>0.298077053026213</v>
       </c>
       <c r="I5" t="n">
-        <v>5.98882553589534</v>
+        <v>2.25782060984969</v>
       </c>
       <c r="J5" t="n">
-        <v>9.19588437104686</v>
+        <v>3.96469169236008</v>
       </c>
       <c r="K5" t="n">
-        <v>4.05272626317745</v>
+        <v>1.84238322095816</v>
       </c>
       <c r="L5" t="n">
-        <v>3.02985196288295</v>
+        <v>1.41171049338801</v>
       </c>
       <c r="M5" t="n">
-        <v>2.58953263151475</v>
+        <v>1.22233540056095</v>
       </c>
       <c r="N5" t="n">
-        <v>2.34369424650612</v>
+        <v>1.11471717699097</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.334358581715749</v>
+        <v>0.139827021667941</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02426029479798</v>
+        <v>0.463715852557997</v>
       </c>
       <c r="I6" t="n">
-        <v>5.36574800052945</v>
+        <v>2.88043520484341</v>
       </c>
       <c r="J6" t="n">
-        <v>8.20781303508003</v>
+        <v>4.73004407782991</v>
       </c>
       <c r="K6" t="n">
-        <v>3.60681873421921</v>
+        <v>2.138725258664</v>
       </c>
       <c r="L6" t="n">
-        <v>2.69180204799905</v>
+        <v>1.61739491643198</v>
       </c>
       <c r="M6" t="n">
-        <v>2.29825913673609</v>
+        <v>1.39057140314404</v>
       </c>
       <c r="N6" t="n">
-        <v>2.07874268447941</v>
+        <v>1.26285031890565</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.293320741563565</v>
+        <v>0.196079259760966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.866345615164543</v>
+        <v>0.587122575506193</v>
       </c>
       <c r="I7" t="n">
-        <v>4.55266762577349</v>
+        <v>3.32049020447076</v>
       </c>
       <c r="J7" t="n">
-        <v>6.97626740798793</v>
+        <v>5.25707516149548</v>
       </c>
       <c r="K7" t="n">
-        <v>3.06633908368197</v>
+        <v>2.34130710968613</v>
       </c>
       <c r="L7" t="n">
-        <v>2.28839220809818</v>
+        <v>1.75793113391123</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9536956761779</v>
+        <v>1.50558278020306</v>
       </c>
       <c r="N7" t="n">
-        <v>1.76693069409114</v>
+        <v>1.36414491921329</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.115971850651164</v>
+        <v>-0.174343297918035</v>
       </c>
       <c r="H8" t="n">
-        <v>0.44563288756915</v>
+        <v>-0.376640427292437</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22848488516712</v>
+        <v>-1.45323453320661</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35949653568213</v>
+        <v>-1.82586126458783</v>
       </c>
       <c r="K8" t="n">
-        <v>1.47935845918714</v>
+        <v>-0.718458437828665</v>
       </c>
       <c r="L8" t="n">
-        <v>1.10961771584183</v>
+        <v>-0.50253567414089</v>
       </c>
       <c r="M8" t="n">
-        <v>0.951754380201275</v>
+        <v>-0.41198697688308</v>
       </c>
       <c r="N8" t="n">
-        <v>0.863989770059041</v>
+        <v>-0.362741868648007</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.105312748767038</v>
+        <v>-0.0892188112807706</v>
       </c>
       <c r="H9" t="n">
-        <v>0.410936555102492</v>
+        <v>-0.131592319787009</v>
       </c>
       <c r="I9" t="n">
-        <v>2.04051443223435</v>
+        <v>-0.401545193292471</v>
       </c>
       <c r="J9" t="n">
-        <v>3.04856626682234</v>
+        <v>-0.397380009768025</v>
       </c>
       <c r="K9" t="n">
-        <v>1.33186267901609</v>
+        <v>-0.12882132568531</v>
       </c>
       <c r="L9" t="n">
-        <v>0.99273524665791</v>
+        <v>-0.078455650091499</v>
       </c>
       <c r="M9" t="n">
-        <v>0.847398576268612</v>
+        <v>-0.0585437231576946</v>
       </c>
       <c r="N9" t="n">
-        <v>0.766417024962825</v>
+        <v>-0.0483926305989214</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0902851294340598</v>
+        <v>-0.006956352368539</v>
       </c>
       <c r="H10" t="n">
-        <v>0.359230125936503</v>
+        <v>0.0921627228496002</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75714184420199</v>
+        <v>0.551307425747447</v>
       </c>
       <c r="J10" t="n">
-        <v>2.58786430399264</v>
+        <v>0.885123278464898</v>
       </c>
       <c r="K10" t="n">
-        <v>1.11857698556682</v>
+        <v>0.397125868879107</v>
       </c>
       <c r="L10" t="n">
-        <v>0.827624793815165</v>
+        <v>0.298746276661509</v>
       </c>
       <c r="M10" t="n">
-        <v>0.702924877505283</v>
+        <v>0.255713111585231</v>
       </c>
       <c r="N10" t="n">
-        <v>0.633567949424253</v>
+        <v>0.231364125715743</v>
       </c>
     </row>
     <row r="11">
@@ -1981,236 +1981,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.0841785304171</v>
+        <v>0.823084141194687</v>
       </c>
       <c r="B2" t="n">
-        <v>6.87813361544909</v>
+        <v>3.34070352728593</v>
       </c>
       <c r="C2" t="n">
-        <v>35.6706961179202</v>
+        <v>19.7700159130295</v>
       </c>
       <c r="D2" t="n">
-        <v>54.4994973419622</v>
+        <v>31.987862144164</v>
       </c>
       <c r="E2" t="n">
-        <v>24.0128075117992</v>
+        <v>14.458362451968</v>
       </c>
       <c r="F2" t="n">
-        <v>17.9677701487212</v>
+        <v>10.9588380099425</v>
       </c>
       <c r="G2" t="n">
-        <v>15.3711989634945</v>
+        <v>9.44329254417244</v>
       </c>
       <c r="H2" t="n">
-        <v>13.9231124554096</v>
+        <v>8.59170793913946</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.62499503811677</v>
+        <v>1.46311359450766</v>
       </c>
       <c r="B3" t="n">
-        <v>8.56659189256893</v>
+        <v>5.30902675747104</v>
       </c>
       <c r="C3" t="n">
-        <v>44.2021557112795</v>
+        <v>29.5893906476278</v>
       </c>
       <c r="D3" t="n">
-        <v>67.1774156655501</v>
+        <v>46.5457327625102</v>
       </c>
       <c r="E3" t="n">
-        <v>29.4731475598882</v>
+        <v>20.730877304996</v>
       </c>
       <c r="F3" t="n">
-        <v>21.988404485121</v>
+        <v>15.5807836912317</v>
       </c>
       <c r="G3" t="n">
-        <v>18.7723889387733</v>
+        <v>13.3556168766494</v>
       </c>
       <c r="H3" t="n">
-        <v>16.9790401745396</v>
+        <v>12.1086828284613</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.58742347081437</v>
+        <v>2.67762426404166</v>
       </c>
       <c r="B4" t="n">
-        <v>11.4582265978608</v>
+        <v>8.89734848238272</v>
       </c>
       <c r="C4" t="n">
-        <v>58.9845514780977</v>
+        <v>47.5762838105198</v>
       </c>
       <c r="D4" t="n">
-        <v>89.4017604458298</v>
+        <v>73.3767986873004</v>
       </c>
       <c r="E4" t="n">
-        <v>39.118075931569</v>
+        <v>32.343535952807</v>
       </c>
       <c r="F4" t="n">
-        <v>29.1263406409237</v>
+        <v>24.1659101993772</v>
       </c>
       <c r="G4" t="n">
-        <v>24.832104570223</v>
+        <v>20.6406051500959</v>
       </c>
       <c r="H4" t="n">
-        <v>22.438025366122</v>
+        <v>18.670127401213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.64828160957462</v>
+        <v>0.53593696630797</v>
       </c>
       <c r="B5" t="n">
-        <v>8.28489083810405</v>
+        <v>2.16882057083063</v>
       </c>
       <c r="C5" t="n">
-        <v>43.5749343517006</v>
+        <v>16.4279931453051</v>
       </c>
       <c r="D5" t="n">
-        <v>66.9096228254527</v>
+        <v>28.8472554733547</v>
       </c>
       <c r="E5" t="n">
-        <v>29.4877985349375</v>
+        <v>13.4052540723954</v>
       </c>
       <c r="F5" t="n">
-        <v>22.0453241769478</v>
+        <v>10.271662065339</v>
       </c>
       <c r="G5" t="n">
-        <v>18.8415430944713</v>
+        <v>8.89376130861698</v>
       </c>
       <c r="H5" t="n">
-        <v>17.0528131634235</v>
+        <v>8.11072680560777</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.28625102522506</v>
+        <v>1.37429310458399</v>
       </c>
       <c r="B6" t="n">
-        <v>10.0669659100861</v>
+        <v>4.55764194255777</v>
       </c>
       <c r="C6" t="n">
-        <v>52.7373778694571</v>
+        <v>28.3104237864553</v>
       </c>
       <c r="D6" t="n">
-        <v>80.6706795530017</v>
+        <v>46.4893472162856</v>
       </c>
       <c r="E6" t="n">
-        <v>35.4497010434308</v>
+        <v>21.0205104887494</v>
       </c>
       <c r="F6" t="n">
-        <v>26.4564384576199</v>
+        <v>15.8966032067842</v>
       </c>
       <c r="G6" t="n">
-        <v>22.5884928856189</v>
+        <v>13.667263079599</v>
       </c>
       <c r="H6" t="n">
-        <v>20.4309703761607</v>
+        <v>12.411953460006</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.14178934888703</v>
+        <v>2.76870631543672</v>
       </c>
       <c r="B7" t="n">
-        <v>12.2330968557363</v>
+        <v>8.29037188696624</v>
       </c>
       <c r="C7" t="n">
-        <v>64.2852264075746</v>
+        <v>46.8864591322478</v>
       </c>
       <c r="D7" t="n">
-        <v>98.5072855447235</v>
+        <v>74.2317021091466</v>
       </c>
       <c r="E7" t="n">
-        <v>43.2977582463863</v>
+        <v>33.0600584114165</v>
       </c>
       <c r="F7" t="n">
-        <v>32.3128818748167</v>
+        <v>24.8225897960666</v>
       </c>
       <c r="G7" t="n">
-        <v>27.5868521926762</v>
+        <v>21.2593445989274</v>
       </c>
       <c r="H7" t="n">
-        <v>24.9496666686365</v>
+        <v>19.2621935517354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.30672036717077</v>
+        <v>-1.96442444429452</v>
       </c>
       <c r="B8" t="n">
-        <v>5.02119753369556</v>
+        <v>-4.24382050195379</v>
       </c>
       <c r="C8" t="n">
-        <v>25.1095983295054</v>
+        <v>-16.3744145855617</v>
       </c>
       <c r="D8" t="n">
-        <v>37.8533456348828</v>
+        <v>-20.5730105078837</v>
       </c>
       <c r="E8" t="n">
-        <v>16.6687676200053</v>
+        <v>-8.09527715911288</v>
       </c>
       <c r="F8" t="n">
-        <v>12.5026897555116</v>
+        <v>-5.66235338095131</v>
       </c>
       <c r="G8" t="n">
-        <v>10.7239543576304</v>
+        <v>-4.64209004753719</v>
       </c>
       <c r="H8" t="n">
-        <v>9.73506090679959</v>
+        <v>-4.08721758880702</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.66925173064928</v>
+        <v>-1.41415599612107</v>
       </c>
       <c r="B9" t="n">
-        <v>6.51351867483103</v>
+        <v>-2.08579407637085</v>
       </c>
       <c r="C9" t="n">
-        <v>32.3430191244625</v>
+        <v>-6.36466160730533</v>
       </c>
       <c r="D9" t="n">
-        <v>48.3210682132056</v>
+        <v>-6.29864168200613</v>
       </c>
       <c r="E9" t="n">
-        <v>21.1105882997392</v>
+        <v>-2.04187264469203</v>
       </c>
       <c r="F9" t="n">
-        <v>15.735274674351</v>
+        <v>-1.24355532665993</v>
       </c>
       <c r="G9" t="n">
-        <v>13.4316268120129</v>
+        <v>-0.927942840195063</v>
       </c>
       <c r="H9" t="n">
-        <v>12.1480348798824</v>
+        <v>-0.767043718103049</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.32640532153552</v>
+        <v>-0.179246519001392</v>
       </c>
       <c r="B10" t="n">
-        <v>9.25639561988915</v>
+        <v>2.37478586150898</v>
       </c>
       <c r="C10" t="n">
-        <v>45.2768264571169</v>
+        <v>14.2057118054822</v>
       </c>
       <c r="D10" t="n">
-        <v>66.6823133107136</v>
+        <v>22.8072498554662</v>
       </c>
       <c r="E10" t="n">
-        <v>28.8227249391096</v>
+        <v>10.2328671451319</v>
       </c>
       <c r="F10" t="n">
-        <v>21.3256683203025</v>
+        <v>7.69788925563716</v>
       </c>
       <c r="G10" t="n">
-        <v>18.1124863631318</v>
+        <v>6.58904015874254</v>
       </c>
       <c r="H10" t="n">
-        <v>16.3253445870223</v>
+        <v>5.96163218296795</v>
       </c>
     </row>
     <row r="11">
@@ -2281,236 +2281,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.23791236327624</v>
+        <v>0.883796732724029</v>
       </c>
       <c r="B2" t="n">
-        <v>7.3854806724254</v>
+        <v>3.58712155251765</v>
       </c>
       <c r="C2" t="n">
-        <v>38.3018492340903</v>
+        <v>21.228298050399</v>
       </c>
       <c r="D2" t="n">
-        <v>58.5195064213187</v>
+        <v>34.3473609014073</v>
       </c>
       <c r="E2" t="n">
-        <v>25.7840477787062</v>
+        <v>15.5248447346364</v>
       </c>
       <c r="F2" t="n">
-        <v>19.2931144666776</v>
+        <v>11.7671872690695</v>
       </c>
       <c r="G2" t="n">
-        <v>16.5050141802867</v>
+        <v>10.1398516615602</v>
       </c>
       <c r="H2" t="n">
-        <v>14.9501134593354</v>
+        <v>9.22545220481229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.62105511347031</v>
+        <v>3.69042821256256</v>
       </c>
       <c r="B3" t="n">
-        <v>21.6076130551466</v>
+        <v>13.3910191256296</v>
       </c>
       <c r="C3" t="n">
-        <v>111.491604688344</v>
+        <v>74.633659647791</v>
       </c>
       <c r="D3" t="n">
-        <v>169.442366573466</v>
+        <v>117.402835983468</v>
       </c>
       <c r="E3" t="n">
-        <v>74.3404583733854</v>
+        <v>52.2897297685726</v>
       </c>
       <c r="F3" t="n">
-        <v>55.4616050084845</v>
+        <v>39.2995895354967</v>
       </c>
       <c r="G3" t="n">
-        <v>47.3498120835647</v>
+        <v>33.6870257393441</v>
       </c>
       <c r="H3" t="n">
-        <v>42.8264279120715</v>
+        <v>30.541869677701</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1192.45328877431</v>
+        <v>-890.03762330672</v>
       </c>
       <c r="B4" t="n">
-        <v>-3808.69448541537</v>
+        <v>-2957.46307775031</v>
       </c>
       <c r="C4" t="n">
-        <v>-19606.3617716612</v>
+        <v>-15814.2735473143</v>
       </c>
       <c r="D4" t="n">
-        <v>-29716.9888453793</v>
+        <v>-24390.3195778944</v>
       </c>
       <c r="E4" t="n">
-        <v>-13002.7800382689</v>
+        <v>-10750.9347952054</v>
       </c>
       <c r="F4" t="n">
-        <v>-9681.54469908341</v>
+        <v>-8032.70629406076</v>
       </c>
       <c r="G4" t="n">
-        <v>-8254.14813803067</v>
+        <v>-6860.90105998456</v>
       </c>
       <c r="H4" t="n">
-        <v>-7458.36039684485</v>
+        <v>-6205.91770180893</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.60536393261902</v>
+        <v>0.931994832372992</v>
       </c>
       <c r="B5" t="n">
-        <v>14.407432092397</v>
+        <v>3.77158078548525</v>
       </c>
       <c r="C5" t="n">
-        <v>75.7768472597584</v>
+        <v>28.5682938110396</v>
       </c>
       <c r="D5" t="n">
-        <v>116.355890019935</v>
+        <v>50.1654013801703</v>
       </c>
       <c r="E5" t="n">
-        <v>51.2793062996612</v>
+        <v>23.3117480366903</v>
       </c>
       <c r="F5" t="n">
-        <v>38.3368371703178</v>
+        <v>17.8624289172031</v>
       </c>
       <c r="G5" t="n">
-        <v>32.7654591900076</v>
+        <v>15.4662583495439</v>
       </c>
       <c r="H5" t="n">
-        <v>29.6548563448038</v>
+        <v>14.1045606943108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-10.3519308387818</v>
+        <v>-4.32912369191086</v>
       </c>
       <c r="B6" t="n">
-        <v>-31.7116781577719</v>
+        <v>-14.3569051223218</v>
       </c>
       <c r="C6" t="n">
-        <v>-166.126593535542</v>
+        <v>-89.1799034232074</v>
       </c>
       <c r="D6" t="n">
-        <v>-254.118534780224</v>
+        <v>-146.444840466848</v>
       </c>
       <c r="E6" t="n">
-        <v>-111.669148412651</v>
+        <v>-66.2161438992684</v>
       </c>
       <c r="F6" t="n">
-        <v>-83.3397141762811</v>
+        <v>-50.0754615837408</v>
       </c>
       <c r="G6" t="n">
-        <v>-71.1554030137507</v>
+        <v>-43.0528772967837</v>
       </c>
       <c r="H6" t="n">
-        <v>-64.3590494699745</v>
+        <v>-39.0985602761008</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-7.35378798724209</v>
+        <v>-4.91586546962632</v>
       </c>
       <c r="B7" t="n">
-        <v>-21.7199845590062</v>
+        <v>-14.7196373491386</v>
       </c>
       <c r="C7" t="n">
-        <v>-114.139055826244</v>
+        <v>-83.2473723038796</v>
       </c>
       <c r="D7" t="n">
-        <v>-174.900660577843</v>
+        <v>-131.799121891475</v>
       </c>
       <c r="E7" t="n">
-        <v>-76.875598357591</v>
+        <v>-58.6984609607745</v>
       </c>
       <c r="F7" t="n">
-        <v>-57.3718416239718</v>
+        <v>-44.0727538940638</v>
       </c>
       <c r="G7" t="n">
-        <v>-48.9807291418236</v>
+        <v>-37.7461767750798</v>
       </c>
       <c r="H7" t="n">
-        <v>-44.2983801392064</v>
+        <v>-34.2002153216091</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.61528953388217</v>
+        <v>-2.42830396211046</v>
       </c>
       <c r="B8" t="n">
-        <v>6.20690396162885</v>
+        <v>-5.2459569872034</v>
       </c>
       <c r="C8" t="n">
-        <v>31.0389830912726</v>
+        <v>-20.2410715926712</v>
       </c>
       <c r="D8" t="n">
-        <v>46.7920410231575</v>
+        <v>-25.431124660422</v>
       </c>
       <c r="E8" t="n">
-        <v>20.6049332020473</v>
+        <v>-10.0068972654816</v>
       </c>
       <c r="F8" t="n">
-        <v>15.4550770117555</v>
+        <v>-6.99946245821209</v>
       </c>
       <c r="G8" t="n">
-        <v>13.2563107386284</v>
+        <v>-5.73827397009221</v>
       </c>
       <c r="H8" t="n">
-        <v>12.0338998224275</v>
+        <v>-5.05237383587538</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.33052587249146</v>
+        <v>-3.66873313143679</v>
       </c>
       <c r="B9" t="n">
-        <v>16.8979672894157</v>
+        <v>-5.41115821332713</v>
       </c>
       <c r="C9" t="n">
-        <v>83.9072253401179</v>
+        <v>-16.5117886379953</v>
       </c>
       <c r="D9" t="n">
-        <v>125.358945113879</v>
+        <v>-16.3405136952418</v>
       </c>
       <c r="E9" t="n">
-        <v>54.767023533339</v>
+        <v>-5.29721320865849</v>
       </c>
       <c r="F9" t="n">
-        <v>40.8218921309919</v>
+        <v>-3.22614523447625</v>
       </c>
       <c r="G9" t="n">
-        <v>34.845557653816</v>
+        <v>-2.40735438752241</v>
       </c>
       <c r="H9" t="n">
-        <v>31.5155457869719</v>
+        <v>-1.98993513416055</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.0289411664268</v>
+        <v>-0.772716936602106</v>
       </c>
       <c r="B10" t="n">
-        <v>39.9035568848193</v>
+        <v>10.2375056777363</v>
       </c>
       <c r="C10" t="n">
-        <v>195.184658725433</v>
+        <v>61.2396501183898</v>
       </c>
       <c r="D10" t="n">
-        <v>287.461944332633</v>
+        <v>98.3201701144209</v>
       </c>
       <c r="E10" t="n">
-        <v>124.252386286513</v>
+        <v>44.1130449678706</v>
       </c>
       <c r="F10" t="n">
-        <v>91.9331945036474</v>
+        <v>33.1849646902878</v>
       </c>
       <c r="G10" t="n">
-        <v>78.0814325139441</v>
+        <v>28.4048078310087</v>
       </c>
       <c r="H10" t="n">
-        <v>70.3772119455197</v>
+        <v>25.7001038750199</v>
       </c>
     </row>
     <row r="11">
@@ -2581,236 +2581,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.15414842501371</v>
+        <v>3.61515785946765</v>
       </c>
       <c r="B2" t="n">
-        <v>30.2102027652576</v>
+        <v>14.6730692627479</v>
       </c>
       <c r="C2" t="n">
-        <v>156.673164952742</v>
+        <v>86.8340487110462</v>
       </c>
       <c r="D2" t="n">
-        <v>239.373201707975</v>
+        <v>140.497387144639</v>
       </c>
       <c r="E2" t="n">
-        <v>105.469277634437</v>
+        <v>63.5041547239586</v>
       </c>
       <c r="F2" t="n">
-        <v>78.9182080169533</v>
+        <v>48.1335107547717</v>
       </c>
       <c r="G2" t="n">
-        <v>67.5135237834379</v>
+        <v>41.4769177921048</v>
       </c>
       <c r="H2" t="n">
-        <v>61.1532246853486</v>
+        <v>37.7365799289332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.12904137407955</v>
+        <v>5.08832372834547</v>
       </c>
       <c r="B3" t="n">
-        <v>29.7923503422018</v>
+        <v>18.4633967764828</v>
       </c>
       <c r="C3" t="n">
-        <v>153.723455645567</v>
+        <v>102.904107449205</v>
       </c>
       <c r="D3" t="n">
-        <v>233.625358566208</v>
+        <v>161.873799380837</v>
       </c>
       <c r="E3" t="n">
-        <v>102.499844606031</v>
+        <v>72.0965311896551</v>
       </c>
       <c r="F3" t="n">
-        <v>76.4698795159157</v>
+        <v>54.1858620273365</v>
       </c>
       <c r="G3" t="n">
-        <v>65.2854244765822</v>
+        <v>46.4473179083641</v>
       </c>
       <c r="H3" t="n">
-        <v>59.0486298049283</v>
+        <v>42.1108097049717</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8.4555006870296</v>
+        <v>6.31111826869768</v>
       </c>
       <c r="B4" t="n">
-        <v>27.0068598420469</v>
+        <v>20.9709104089824</v>
       </c>
       <c r="C4" t="n">
-        <v>139.025659949192</v>
+        <v>112.136552519919</v>
       </c>
       <c r="D4" t="n">
-        <v>210.71854299369</v>
+        <v>172.947960217158</v>
       </c>
       <c r="E4" t="n">
-        <v>92.2006896051144</v>
+        <v>76.233205445312</v>
       </c>
       <c r="F4" t="n">
-        <v>68.650326704832</v>
+        <v>56.9586701865292</v>
       </c>
       <c r="G4" t="n">
-        <v>58.5288798387238</v>
+        <v>48.6495816418696</v>
       </c>
       <c r="H4" t="n">
-        <v>52.8860728158652</v>
+        <v>44.0051965852947</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.88906855994492</v>
+        <v>2.00126655128633</v>
       </c>
       <c r="B5" t="n">
-        <v>30.9369869176527</v>
+        <v>8.09869133313508</v>
       </c>
       <c r="C5" t="n">
-        <v>162.715140165279</v>
+        <v>61.3445148464864</v>
       </c>
       <c r="D5" t="n">
-        <v>249.850259522528</v>
+        <v>107.719845997825</v>
       </c>
       <c r="E5" t="n">
-        <v>110.111726917395</v>
+        <v>50.057167676625</v>
       </c>
       <c r="F5" t="n">
-        <v>82.3204456141902</v>
+        <v>38.3558795339134</v>
       </c>
       <c r="G5" t="n">
-        <v>70.357061259173</v>
+        <v>33.210597777336</v>
       </c>
       <c r="H5" t="n">
-        <v>63.6776836358098</v>
+        <v>30.2866330988574</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.18818723665341</v>
+        <v>3.84245216388929</v>
       </c>
       <c r="B6" t="n">
-        <v>28.1467139840735</v>
+        <v>12.7429302279115</v>
       </c>
       <c r="C6" t="n">
-        <v>147.450970274411</v>
+        <v>79.154474963197</v>
       </c>
       <c r="D6" t="n">
-        <v>225.551031418936</v>
+        <v>129.981800980578</v>
       </c>
       <c r="E6" t="n">
-        <v>99.1155234856482</v>
+        <v>58.7722558922411</v>
       </c>
       <c r="F6" t="n">
-        <v>73.9708282470484</v>
+        <v>44.4460771771734</v>
       </c>
       <c r="G6" t="n">
-        <v>63.1562532605573</v>
+        <v>38.2129579341419</v>
       </c>
       <c r="H6" t="n">
-        <v>57.1239323477509</v>
+        <v>34.7031774163853</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.81932185509485</v>
+        <v>5.89554660104376</v>
       </c>
       <c r="B7" t="n">
-        <v>26.0485527793147</v>
+        <v>17.6531087920328</v>
       </c>
       <c r="C7" t="n">
-        <v>136.885788836265</v>
+        <v>99.837712375247</v>
       </c>
       <c r="D7" t="n">
-        <v>209.756552810708</v>
+        <v>158.065323367546</v>
       </c>
       <c r="E7" t="n">
-        <v>92.1961098001229</v>
+        <v>70.3964569701903</v>
       </c>
       <c r="F7" t="n">
-        <v>68.8054561239933</v>
+        <v>52.8559977941253</v>
       </c>
       <c r="G7" t="n">
-        <v>58.7420817337122</v>
+        <v>45.2685993064075</v>
       </c>
       <c r="H7" t="n">
-        <v>53.1265890157272</v>
+        <v>41.0159644197106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.07072386858478</v>
+        <v>-12.1329150818441</v>
       </c>
       <c r="B8" t="n">
-        <v>31.0125255580252</v>
+        <v>-26.2111958148056</v>
       </c>
       <c r="C8" t="n">
-        <v>155.084928390062</v>
+        <v>-101.133633445941</v>
       </c>
       <c r="D8" t="n">
-        <v>233.794396870613</v>
+        <v>-127.065507759797</v>
       </c>
       <c r="E8" t="n">
-        <v>102.951652144172</v>
+        <v>-49.9990267484083</v>
       </c>
       <c r="F8" t="n">
-        <v>77.2206197794197</v>
+        <v>-34.9725095989363</v>
       </c>
       <c r="G8" t="n">
-        <v>66.2345797725137</v>
+        <v>-28.6710361972049</v>
       </c>
       <c r="H8" t="n">
-        <v>60.1268568215145</v>
+        <v>-25.2439660227423</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7.79389430368803</v>
+        <v>-6.60282817763332</v>
       </c>
       <c r="B9" t="n">
-        <v>30.4122351138645</v>
+        <v>-9.73876993625749</v>
       </c>
       <c r="C9" t="n">
-        <v>151.012617144433</v>
+        <v>-29.717207378173</v>
       </c>
       <c r="D9" t="n">
-        <v>225.615640457378</v>
+        <v>-29.4089540990111</v>
       </c>
       <c r="E9" t="n">
-        <v>98.567334618154</v>
+        <v>-9.5336966151484</v>
       </c>
       <c r="F9" t="n">
-        <v>73.4694865966611</v>
+        <v>-5.806277506752</v>
       </c>
       <c r="G9" t="n">
-        <v>62.7135367166531</v>
+        <v>-4.33265293876993</v>
       </c>
       <c r="H9" t="n">
-        <v>56.7203245100076</v>
+        <v>-3.58139971068217</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.70128678284854</v>
+        <v>-0.516325473268265</v>
       </c>
       <c r="B10" t="n">
-        <v>26.6633509862495</v>
+        <v>6.84064851404386</v>
       </c>
       <c r="C10" t="n">
-        <v>130.421382678982</v>
+        <v>40.9200184859445</v>
       </c>
       <c r="D10" t="n">
-        <v>192.080589182931</v>
+        <v>65.6970307773714</v>
       </c>
       <c r="E10" t="n">
-        <v>83.0248039291138</v>
+        <v>29.4761092211809</v>
       </c>
       <c r="F10" t="n">
-        <v>61.4292866025292</v>
+        <v>22.1740223198012</v>
       </c>
       <c r="G10" t="n">
-        <v>52.1736106542542</v>
+        <v>18.9799461506972</v>
       </c>
       <c r="H10" t="n">
-        <v>47.0256901898123</v>
+        <v>17.1726769115016</v>
       </c>
     </row>
     <row r="11">
@@ -2881,236 +2881,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13.7939163382307</v>
+        <v>5.44749579619354</v>
       </c>
       <c r="B2" t="n">
-        <v>45.5222037220054</v>
+        <v>22.1100948376971</v>
       </c>
       <c r="C2" t="n">
-        <v>236.082749532292</v>
+        <v>130.845770422192</v>
       </c>
       <c r="D2" t="n">
-        <v>360.699189555611</v>
+        <v>211.708300328356</v>
       </c>
       <c r="E2" t="n">
-        <v>158.926240257118</v>
+        <v>95.6911508009582</v>
       </c>
       <c r="F2" t="n">
-        <v>118.917796435807</v>
+        <v>72.529916447761</v>
       </c>
       <c r="G2" t="n">
-        <v>101.732663217824</v>
+        <v>62.4994382250372</v>
       </c>
       <c r="H2" t="n">
-        <v>92.1486550095411</v>
+        <v>56.8633151073121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14.3205445932494</v>
+        <v>7.98195164977079</v>
       </c>
       <c r="B3" t="n">
-        <v>46.7346640387229</v>
+        <v>28.9631611957874</v>
       </c>
       <c r="C3" t="n">
-        <v>241.14290990632</v>
+        <v>161.423614941546</v>
       </c>
       <c r="D3" t="n">
-        <v>366.483426722182</v>
+        <v>253.928191090677</v>
       </c>
       <c r="E3" t="n">
-        <v>160.78945590602</v>
+        <v>113.096386314072</v>
       </c>
       <c r="F3" t="n">
-        <v>119.956770352406</v>
+        <v>85.0002778702892</v>
       </c>
       <c r="G3" t="n">
-        <v>102.411939457375</v>
+        <v>72.860978506697</v>
       </c>
       <c r="H3" t="n">
-        <v>92.6284044119593</v>
+        <v>66.0583848321849</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14.4474041318444</v>
+        <v>10.78342720634</v>
       </c>
       <c r="B4" t="n">
-        <v>46.1449928173562</v>
+        <v>35.8317300069556</v>
       </c>
       <c r="C4" t="n">
-        <v>237.544761490399</v>
+        <v>191.600965119926</v>
       </c>
       <c r="D4" t="n">
-        <v>360.042067452394</v>
+        <v>295.505750341699</v>
       </c>
       <c r="E4" t="n">
-        <v>157.5377583498</v>
+        <v>130.25508105319</v>
       </c>
       <c r="F4" t="n">
-        <v>117.298673419691</v>
+        <v>97.321844968865</v>
       </c>
       <c r="G4" t="n">
-        <v>100.004767513213</v>
+        <v>83.1246064355964</v>
       </c>
       <c r="H4" t="n">
-        <v>90.3632434314629</v>
+        <v>75.1890257597926</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13.073996415554</v>
+        <v>2.64580547293032</v>
       </c>
       <c r="B5" t="n">
-        <v>40.900723219547</v>
+        <v>10.7070004437987</v>
       </c>
       <c r="C5" t="n">
-        <v>215.120073885813</v>
+        <v>81.1014669738853</v>
       </c>
       <c r="D5" t="n">
-        <v>330.318409425705</v>
+        <v>142.412692552658</v>
       </c>
       <c r="E5" t="n">
-        <v>145.57491580749</v>
+        <v>66.1788546423652</v>
       </c>
       <c r="F5" t="n">
-        <v>108.833021468376</v>
+        <v>50.7089852297066</v>
       </c>
       <c r="G5" t="n">
-        <v>93.0166436945465</v>
+        <v>43.9065857079783</v>
       </c>
       <c r="H5" t="n">
-        <v>84.1860689466181</v>
+        <v>40.0409128699443</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13.4044898949273</v>
+        <v>5.60568802920427</v>
       </c>
       <c r="B6" t="n">
-        <v>41.0627617240789</v>
+        <v>18.5904439115477</v>
       </c>
       <c r="C6" t="n">
-        <v>215.11370960704</v>
+        <v>115.47711561099</v>
       </c>
       <c r="D6" t="n">
-        <v>329.052558853465</v>
+        <v>189.628236004822</v>
       </c>
       <c r="E6" t="n">
-        <v>144.597949385902</v>
+        <v>85.7418432949316</v>
       </c>
       <c r="F6" t="n">
-        <v>107.914781688549</v>
+        <v>64.8416251264354</v>
       </c>
       <c r="G6" t="n">
-        <v>92.1375824009607</v>
+        <v>55.7482336058765</v>
       </c>
       <c r="H6" t="n">
-        <v>83.3371321449945</v>
+        <v>50.6278745761864</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13.3390399712104</v>
+        <v>8.91689100993928</v>
       </c>
       <c r="B7" t="n">
-        <v>39.3978916320801</v>
+        <v>26.6999580763705</v>
       </c>
       <c r="C7" t="n">
-        <v>207.036894534333</v>
+        <v>151.002453237183</v>
       </c>
       <c r="D7" t="n">
-        <v>317.252401957525</v>
+        <v>239.070497834702</v>
       </c>
       <c r="E7" t="n">
-        <v>139.444689061154</v>
+        <v>106.473169795305</v>
       </c>
       <c r="F7" t="n">
-        <v>104.066814269297</v>
+        <v>79.9435919085713</v>
       </c>
       <c r="G7" t="n">
-        <v>88.8461708408383</v>
+        <v>68.4678102818125</v>
       </c>
       <c r="H7" t="n">
-        <v>80.3528554755565</v>
+        <v>62.0357889009574</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14.6848040868823</v>
+        <v>-22.0760224089916</v>
       </c>
       <c r="B8" t="n">
-        <v>56.4277590801641</v>
+        <v>-47.6916670289731</v>
       </c>
       <c r="C8" t="n">
-        <v>282.179371679531</v>
+        <v>-184.014174927861</v>
       </c>
       <c r="D8" t="n">
-        <v>425.392439458817</v>
+        <v>-231.197612263253</v>
       </c>
       <c r="E8" t="n">
-        <v>187.322087432924</v>
+        <v>-90.9739850217319</v>
       </c>
       <c r="F8" t="n">
-        <v>140.504085060124</v>
+        <v>-63.6330099070836</v>
       </c>
       <c r="G8" t="n">
-        <v>120.514819187699</v>
+        <v>-52.1673837910273</v>
       </c>
       <c r="H8" t="n">
-        <v>109.401724945744</v>
+        <v>-45.9317778003584</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14.4631241766185</v>
+        <v>-12.2528636043726</v>
       </c>
       <c r="B9" t="n">
-        <v>56.4359633068415</v>
+        <v>-18.0722285198248</v>
       </c>
       <c r="C9" t="n">
-        <v>280.234007402764</v>
+        <v>-55.1462008266468</v>
       </c>
       <c r="D9" t="n">
-        <v>418.674785283946</v>
+        <v>-54.5741754333516</v>
       </c>
       <c r="E9" t="n">
-        <v>182.911333512193</v>
+        <v>-17.6916741021046</v>
       </c>
       <c r="F9" t="n">
-        <v>136.337274594178</v>
+        <v>-10.774705084764</v>
       </c>
       <c r="G9" t="n">
-        <v>116.377465968286</v>
+        <v>-8.04010101060367</v>
       </c>
       <c r="H9" t="n">
-        <v>105.255866292432</v>
+        <v>-6.64600092372191</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15.721569903837</v>
+        <v>-1.2113266129566</v>
       </c>
       <c r="B10" t="n">
-        <v>62.5536184294854</v>
+        <v>16.048519827024</v>
       </c>
       <c r="C10" t="n">
-        <v>305.975397141726</v>
+        <v>96.0005073562328</v>
       </c>
       <c r="D10" t="n">
-        <v>450.631126209764</v>
+        <v>154.128676373694</v>
       </c>
       <c r="E10" t="n">
-        <v>194.780540069512</v>
+        <v>69.1524966219914</v>
       </c>
       <c r="F10" t="n">
-        <v>144.116324932743</v>
+        <v>52.0214181613954</v>
       </c>
       <c r="G10" t="n">
-        <v>122.402024210604</v>
+        <v>44.5279481163179</v>
       </c>
       <c r="H10" t="n">
-        <v>110.324733077764</v>
+        <v>40.2879997900071</v>
       </c>
     </row>
     <row r="11">
@@ -3181,236 +3181,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.97080015455608</v>
+        <v>2.35798941680605</v>
       </c>
       <c r="B2" t="n">
-        <v>19.7046273410954</v>
+        <v>9.57052039733517</v>
       </c>
       <c r="C2" t="n">
-        <v>102.190188981257</v>
+        <v>56.6375731955503</v>
       </c>
       <c r="D2" t="n">
-        <v>156.131349787724</v>
+        <v>91.6395258116735</v>
       </c>
       <c r="E2" t="n">
-        <v>68.7924151939531</v>
+        <v>41.4206323992608</v>
       </c>
       <c r="F2" t="n">
-        <v>51.4744601843408</v>
+        <v>31.3951183780907</v>
       </c>
       <c r="G2" t="n">
-        <v>44.0357463660169</v>
+        <v>27.0533506412137</v>
       </c>
       <c r="H2" t="n">
-        <v>39.8872365238425</v>
+        <v>24.6137124733975</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.46930640064068</v>
+        <v>3.04846920893462</v>
       </c>
       <c r="B3" t="n">
-        <v>17.8489159748346</v>
+        <v>11.0616186332454</v>
       </c>
       <c r="C3" t="n">
-        <v>92.0973676686482</v>
+        <v>61.6509522152208</v>
       </c>
       <c r="D3" t="n">
-        <v>139.967452944857</v>
+        <v>96.9803258383087</v>
       </c>
       <c r="E3" t="n">
-        <v>61.4087540188156</v>
+        <v>43.1938035267508</v>
       </c>
       <c r="F3" t="n">
-        <v>45.8139233194996</v>
+        <v>32.4633299233158</v>
       </c>
       <c r="G3" t="n">
-        <v>39.1131965917195</v>
+        <v>27.8270853115092</v>
       </c>
       <c r="H3" t="n">
-        <v>35.3766661478976</v>
+        <v>25.229036830692</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.1349163034399</v>
+        <v>4.57905259459832</v>
       </c>
       <c r="B4" t="n">
-        <v>19.5949158875764</v>
+        <v>15.2155129457201</v>
       </c>
       <c r="C4" t="n">
-        <v>100.870524335374</v>
+        <v>81.3610440977529</v>
       </c>
       <c r="D4" t="n">
-        <v>152.887531170342</v>
+        <v>125.482960744179</v>
       </c>
       <c r="E4" t="n">
-        <v>66.8965132620109</v>
+        <v>55.3112526697959</v>
       </c>
       <c r="F4" t="n">
-        <v>49.8094700866145</v>
+        <v>41.326550287627</v>
       </c>
       <c r="G4" t="n">
-        <v>42.4658210595926</v>
+        <v>35.2978637951107</v>
       </c>
       <c r="H4" t="n">
-        <v>38.3716638851035</v>
+        <v>31.9281149585053</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.82356687967555</v>
+        <v>1.17852450256837</v>
       </c>
       <c r="B5" t="n">
-        <v>18.218461251279</v>
+        <v>4.7692328484194</v>
       </c>
       <c r="C5" t="n">
-        <v>95.8212085743254</v>
+        <v>36.125129757595</v>
       </c>
       <c r="D5" t="n">
-        <v>147.13414993675</v>
+        <v>63.4350670777613</v>
       </c>
       <c r="E5" t="n">
-        <v>64.8436202108392</v>
+        <v>29.4781315353306</v>
       </c>
       <c r="F5" t="n">
-        <v>48.4776314061272</v>
+        <v>22.5873678942082</v>
       </c>
       <c r="G5" t="n">
-        <v>41.4325221042361</v>
+        <v>19.5573664089753</v>
       </c>
       <c r="H5" t="n">
-        <v>37.4991079440979</v>
+        <v>17.8354748318555</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.24136019202733</v>
+        <v>2.61010440446823</v>
       </c>
       <c r="B6" t="n">
-        <v>19.1195255028957</v>
+        <v>8.65602924774928</v>
       </c>
       <c r="C6" t="n">
-        <v>100.160629343217</v>
+        <v>53.7681238237437</v>
       </c>
       <c r="D6" t="n">
-        <v>153.212509988161</v>
+        <v>88.2941561194918</v>
       </c>
       <c r="E6" t="n">
-        <v>67.3272830387587</v>
+        <v>39.9228714950614</v>
       </c>
       <c r="F6" t="n">
-        <v>50.246971562649</v>
+        <v>30.191371773397</v>
       </c>
       <c r="G6" t="n">
-        <v>42.9008372190737</v>
+        <v>25.9573328586887</v>
       </c>
       <c r="H6" t="n">
-        <v>38.8031967769491</v>
+        <v>23.5732059529055</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.57038461102386</v>
+        <v>4.39217541864565</v>
       </c>
       <c r="B7" t="n">
-        <v>19.4061417796858</v>
+        <v>13.1515456913387</v>
       </c>
       <c r="C7" t="n">
-        <v>101.979754817326</v>
+        <v>74.3789805801452</v>
       </c>
       <c r="D7" t="n">
-        <v>156.26838993893</v>
+        <v>117.758483617499</v>
       </c>
       <c r="E7" t="n">
-        <v>68.6859954744762</v>
+        <v>52.4452792569693</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2599854613993</v>
+        <v>39.3776573996116</v>
       </c>
       <c r="G7" t="n">
-        <v>43.7627831463849</v>
+        <v>33.7250542765486</v>
       </c>
       <c r="H7" t="n">
-        <v>39.5792475476415</v>
+        <v>30.5568461903776</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.59776945458607</v>
+        <v>-3.905289873364</v>
       </c>
       <c r="B8" t="n">
-        <v>9.98217668154897</v>
+        <v>-8.43674557135059</v>
       </c>
       <c r="C8" t="n">
-        <v>49.9180614277436</v>
+        <v>-32.5524535438281</v>
       </c>
       <c r="D8" t="n">
-        <v>75.2527223992798</v>
+        <v>-40.8992923267675</v>
       </c>
       <c r="E8" t="n">
-        <v>33.1376294857919</v>
+        <v>-16.0934690073621</v>
       </c>
       <c r="F8" t="n">
-        <v>24.8554368348569</v>
+        <v>-11.2567991007559</v>
       </c>
       <c r="G8" t="n">
-        <v>21.3192981165086</v>
+        <v>-9.22850828218099</v>
       </c>
       <c r="H8" t="n">
-        <v>19.3533708493225</v>
+        <v>-8.12541785771537</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.96583797698471</v>
+        <v>-1.66541781057439</v>
       </c>
       <c r="B9" t="n">
-        <v>7.67081569524653</v>
+        <v>-2.45638996935751</v>
       </c>
       <c r="C9" t="n">
-        <v>38.0896027350412</v>
+        <v>-7.4955102747928</v>
       </c>
       <c r="D9" t="n">
-        <v>56.9065703140172</v>
+        <v>-7.41776018233647</v>
       </c>
       <c r="E9" t="n">
-        <v>24.8614366749671</v>
+        <v>-2.4046647461258</v>
       </c>
       <c r="F9" t="n">
-        <v>18.5310579376143</v>
+        <v>-1.46450546837465</v>
       </c>
       <c r="G9" t="n">
-        <v>15.8181067570141</v>
+        <v>-1.0928161656103</v>
       </c>
       <c r="H9" t="n">
-        <v>14.3064511326394</v>
+        <v>-0.903329104513202</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.02238689932294</v>
+        <v>-0.155822293055274</v>
       </c>
       <c r="B10" t="n">
-        <v>8.04675482097766</v>
+        <v>2.06444499183105</v>
       </c>
       <c r="C10" t="n">
-        <v>39.3599773101247</v>
+        <v>12.3492863367428</v>
       </c>
       <c r="D10" t="n">
-        <v>57.9681604094352</v>
+        <v>19.8267614376137</v>
       </c>
       <c r="E10" t="n">
-        <v>25.0561244766967</v>
+        <v>8.89561946289201</v>
       </c>
       <c r="F10" t="n">
-        <v>18.5387953814597</v>
+        <v>6.69191659721781</v>
       </c>
       <c r="G10" t="n">
-        <v>15.7455172561183</v>
+        <v>5.72797369950917</v>
       </c>
       <c r="H10" t="n">
-        <v>14.1919220671033</v>
+        <v>5.18255641603264</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_2.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_2.xlsx
@@ -637,28 +637,28 @@
         <v>0.0125</v>
       </c>
       <c r="H5" t="n">
-        <v>276.166762970885</v>
+        <v>297.216762939616</v>
       </c>
       <c r="I5" t="n">
-        <v>161.41899700805</v>
+        <v>188.88876163263</v>
       </c>
       <c r="J5" t="n">
-        <v>100.959508575313</v>
+        <v>130.412949014979</v>
       </c>
       <c r="K5" t="n">
-        <v>66.9821020354688</v>
+        <v>96.671736245233</v>
       </c>
       <c r="L5" t="n">
-        <v>45.2686976209134</v>
+        <v>74.9946715363091</v>
       </c>
       <c r="M5" t="n">
-        <v>30.260054230837</v>
+        <v>59.9962744177698</v>
       </c>
       <c r="N5" t="n">
-        <v>19.3476709425518</v>
+        <v>49.0886568390619</v>
       </c>
       <c r="O5" t="n">
-        <v>11.1067743893329</v>
+        <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.0125</v>
       </c>
       <c r="H6" t="n">
-        <v>293.1868462847</v>
+        <v>307.224346263849</v>
       </c>
       <c r="I6" t="n">
-        <v>182.016579273066</v>
+        <v>200.100040166797</v>
       </c>
       <c r="J6" t="n">
-        <v>120.254267578413</v>
+        <v>139.771055953038</v>
       </c>
       <c r="K6" t="n">
-        <v>84.2739208470969</v>
+        <v>103.976596989415</v>
       </c>
       <c r="L6" t="n">
-        <v>61.1937751432458</v>
+        <v>80.9258040028391</v>
       </c>
       <c r="M6" t="n">
-        <v>45.377526084738</v>
+        <v>65.1175728470531</v>
       </c>
       <c r="N6" t="n">
-        <v>33.9876014729822</v>
+        <v>53.731219933595</v>
       </c>
       <c r="O6" t="n">
-        <v>25.4488409393044</v>
+        <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.0125</v>
       </c>
       <c r="H7" t="n">
-        <v>307.656073605541</v>
+        <v>314.668573595124</v>
       </c>
       <c r="I7" t="n">
-        <v>197.36250145535</v>
+        <v>206.219833547116</v>
       </c>
       <c r="J7" t="n">
-        <v>133.891524453198</v>
+        <v>143.504334912525</v>
       </c>
       <c r="K7" t="n">
-        <v>96.1812803586853</v>
+        <v>105.902653793024</v>
       </c>
       <c r="L7" t="n">
-        <v>72.0802889403447</v>
+        <v>81.8196981772802</v>
       </c>
       <c r="M7" t="n">
-        <v>55.706710379565</v>
+        <v>65.4510274707899</v>
       </c>
       <c r="N7" t="n">
-        <v>43.9959144648564</v>
+        <v>53.7423740102523</v>
       </c>
       <c r="O7" t="n">
-        <v>35.2560581493574</v>
+        <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.0125</v>
       </c>
       <c r="H8" t="n">
-        <v>212.375807903736</v>
+        <v>266.000807930288</v>
       </c>
       <c r="I8" t="n">
-        <v>77.5162589672474</v>
+        <v>155.562935242816</v>
       </c>
       <c r="J8" t="n">
-        <v>-14.045689195886</v>
+        <v>72.7835029649257</v>
       </c>
       <c r="K8" t="n">
-        <v>-63.8454676587368</v>
+        <v>24.721654691844</v>
       </c>
       <c r="L8" t="n">
-        <v>-92.347964039085</v>
+        <v>-3.38530595420321</v>
       </c>
       <c r="M8" t="n">
-        <v>-110.433937714629</v>
+        <v>-21.3416730890296</v>
       </c>
       <c r="N8" t="n">
-        <v>-122.871388609178</v>
+        <v>-33.7208561709312</v>
       </c>
       <c r="O8" t="n">
-        <v>-131.938972723872</v>
+        <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.0125</v>
       </c>
       <c r="H9" t="n">
-        <v>234.271568667736</v>
+        <v>270.271568685561</v>
       </c>
       <c r="I9" t="n">
-        <v>107.988579265978</v>
+        <v>159.254117451636</v>
       </c>
       <c r="J9" t="n">
-        <v>18.5460497754398</v>
+        <v>75.9090207918885</v>
       </c>
       <c r="K9" t="n">
-        <v>-31.5713942997207</v>
+        <v>27.1105522435488</v>
       </c>
       <c r="L9" t="n">
-        <v>-60.6615492677588</v>
+        <v>-1.66299881454391</v>
       </c>
       <c r="M9" t="n">
-        <v>-79.2647430206882</v>
+        <v>-20.1584247153941</v>
       </c>
       <c r="N9" t="n">
-        <v>-92.1146861106535</v>
+        <v>-32.9580172322294</v>
       </c>
       <c r="O9" t="n">
-        <v>-101.504070488222</v>
+        <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.0125</v>
       </c>
       <c r="H10" t="n">
-        <v>255.431157304974</v>
+        <v>273.431157313886</v>
       </c>
       <c r="I10" t="n">
-        <v>135.813055843614</v>
+        <v>160.852162605097</v>
       </c>
       <c r="J10" t="n">
-        <v>48.0748494497129</v>
+        <v>76.2284892037397</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.59544164514419</v>
+        <v>26.2981452880862</v>
       </c>
       <c r="L10" t="n">
-        <v>-32.3977568239551</v>
+        <v>-3.31648855059343</v>
       </c>
       <c r="M10" t="n">
-        <v>-51.5410125284338</v>
+        <v>-22.3938021710369</v>
       </c>
       <c r="N10" t="n">
-        <v>-64.7679936149297</v>
+        <v>-35.5887361600515</v>
       </c>
       <c r="O10" t="n">
-        <v>-74.4183693074558</v>
+        <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
@@ -1153,28 +1153,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>18.9462894154569</v>
+        <v>39.9962893841882</v>
       </c>
       <c r="H5" t="n">
-        <v>37.0665969469494</v>
+        <v>64.5363615715299</v>
       </c>
       <c r="I5" t="n">
-        <v>69.9696166610458</v>
+        <v>99.4230571007118</v>
       </c>
       <c r="J5" t="n">
-        <v>89.5753795111941</v>
+        <v>119.265013720958</v>
       </c>
       <c r="K5" t="n">
-        <v>99.0075382039711</v>
+        <v>128.733512119367</v>
       </c>
       <c r="L5" t="n">
-        <v>103.758434079803</v>
+        <v>133.494654266735</v>
       </c>
       <c r="M5" t="n">
-        <v>106.367870576697</v>
+        <v>136.108856473207</v>
       </c>
       <c r="N5" t="n">
-        <v>107.925530574442</v>
+        <v>137.669294341224</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>35.9663727292728</v>
+        <v>50.0038727084208</v>
       </c>
       <c r="H6" t="n">
-        <v>57.6641792119662</v>
+        <v>75.7476401056969</v>
       </c>
       <c r="I6" t="n">
-        <v>89.2643756641462</v>
+        <v>108.781164038771</v>
       </c>
       <c r="J6" t="n">
-        <v>106.867198322822</v>
+        <v>126.56987446514</v>
       </c>
       <c r="K6" t="n">
-        <v>114.932615726303</v>
+        <v>134.664644585897</v>
       </c>
       <c r="L6" t="n">
-        <v>118.875905933704</v>
+        <v>138.615952696019</v>
       </c>
       <c r="M6" t="n">
-        <v>121.007801107127</v>
+        <v>140.75141956774</v>
       </c>
       <c r="N6" t="n">
-        <v>122.267597124414</v>
+        <v>142.01322774245</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.4356000501135</v>
+        <v>57.4481000396968</v>
       </c>
       <c r="H7" t="n">
-        <v>73.0101013942496</v>
+        <v>81.8674334860162</v>
       </c>
       <c r="I7" t="n">
-        <v>102.901632538931</v>
+        <v>112.514442998258</v>
       </c>
       <c r="J7" t="n">
-        <v>118.774557834411</v>
+        <v>128.49593126875</v>
       </c>
       <c r="K7" t="n">
-        <v>125.819129523402</v>
+        <v>135.558538760338</v>
       </c>
       <c r="L7" t="n">
-        <v>129.205090228531</v>
+        <v>138.949407319755</v>
       </c>
       <c r="M7" t="n">
-        <v>131.016114099001</v>
+        <v>140.762573644397</v>
       </c>
       <c r="N7" t="n">
-        <v>132.074814334467</v>
+        <v>141.8224565217</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-44.8446656516921</v>
+        <v>8.78033437486027</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8361410938528</v>
+        <v>31.210535181716</v>
       </c>
       <c r="I8" t="n">
-        <v>-45.0355811101528</v>
+        <v>41.7936110506589</v>
       </c>
       <c r="J8" t="n">
-        <v>-41.2521901830115</v>
+        <v>47.3149321675693</v>
       </c>
       <c r="K8" t="n">
-        <v>-38.6091234560273</v>
+        <v>50.3535346288545</v>
       </c>
       <c r="L8" t="n">
-        <v>-36.9355578656631</v>
+        <v>52.156706759936</v>
       </c>
       <c r="M8" t="n">
-        <v>-35.8511889750334</v>
+        <v>53.2993434632136</v>
       </c>
       <c r="N8" t="n">
-        <v>-35.1202165387623</v>
+        <v>54.0623310393967</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-22.9489048876922</v>
+        <v>13.0510951301332</v>
       </c>
       <c r="H9" t="n">
-        <v>-16.3638207951224</v>
+        <v>34.9017173905357</v>
       </c>
       <c r="I9" t="n">
-        <v>-12.443842138827</v>
+        <v>44.9191288776217</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.9781168239954</v>
+        <v>49.7038297192741</v>
       </c>
       <c r="K9" t="n">
-        <v>-6.92270868470105</v>
+        <v>52.0758417685138</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.76636317172253</v>
+        <v>53.3399551335716</v>
       </c>
       <c r="M9" t="n">
-        <v>-5.09448647650869</v>
+        <v>54.0621824019155</v>
       </c>
       <c r="N9" t="n">
-        <v>-4.68531430311303</v>
+        <v>54.5000619342742</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.78931625045402</v>
+        <v>16.2106837584587</v>
       </c>
       <c r="H10" t="n">
-        <v>11.4606557825138</v>
+        <v>36.499762543997</v>
       </c>
       <c r="I10" t="n">
-        <v>17.0849575354461</v>
+        <v>45.2385972894729</v>
       </c>
       <c r="J10" t="n">
-        <v>19.9978358305811</v>
+        <v>48.8914227638114</v>
       </c>
       <c r="K10" t="n">
-        <v>21.3410837591026</v>
+        <v>50.4223520324643</v>
       </c>
       <c r="L10" t="n">
-        <v>21.9573673205318</v>
+        <v>51.1045776779287</v>
       </c>
       <c r="M10" t="n">
-        <v>22.2522060192151</v>
+        <v>51.4314634740933</v>
       </c>
       <c r="N10" t="n">
-        <v>22.4003868776534</v>
+        <v>51.5989135914275</v>
       </c>
     </row>
     <row r="11">
@@ -1651,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0736577814105229</v>
+        <v>0.155494190766932</v>
       </c>
       <c r="H5" t="n">
-        <v>0.298077053026213</v>
+        <v>0.518979621943928</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25782060984969</v>
+        <v>3.20824149292823</v>
       </c>
       <c r="J5" t="n">
-        <v>3.96469169236008</v>
+        <v>5.27878320660202</v>
       </c>
       <c r="K5" t="n">
-        <v>1.84238322095816</v>
+        <v>2.39553944079606</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41171049338801</v>
+        <v>1.81629383587854</v>
       </c>
       <c r="M5" t="n">
-        <v>1.22233540056095</v>
+        <v>1.56410646086131</v>
       </c>
       <c r="N5" t="n">
-        <v>1.11471717699097</v>
+        <v>1.42192793799181</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.139827021667941</v>
+        <v>0.19440082671975</v>
       </c>
       <c r="H6" t="n">
-        <v>0.463715852557997</v>
+        <v>0.609136937192032</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88043520484341</v>
+        <v>3.51021437376138</v>
       </c>
       <c r="J6" t="n">
-        <v>4.73004407782991</v>
+        <v>5.60210330710671</v>
       </c>
       <c r="K6" t="n">
-        <v>2.138725258664</v>
+        <v>2.50590900594072</v>
       </c>
       <c r="L6" t="n">
-        <v>1.61739491643198</v>
+        <v>1.88597290145532</v>
       </c>
       <c r="M6" t="n">
-        <v>1.39057140314404</v>
+        <v>1.61745686816963</v>
       </c>
       <c r="N6" t="n">
-        <v>1.26285031890565</v>
+        <v>1.46679458958276</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.196079259760966</v>
+        <v>0.223341864065566</v>
       </c>
       <c r="H7" t="n">
-        <v>0.587122575506193</v>
+        <v>0.658350248533931</v>
       </c>
       <c r="I7" t="n">
-        <v>3.32049020447076</v>
+        <v>3.6306820078472</v>
       </c>
       <c r="J7" t="n">
-        <v>5.25707516149548</v>
+        <v>5.68735241740861</v>
       </c>
       <c r="K7" t="n">
-        <v>2.34130710968613</v>
+        <v>2.5225430487437</v>
       </c>
       <c r="L7" t="n">
-        <v>1.75793113391123</v>
+        <v>1.89050979906343</v>
       </c>
       <c r="M7" t="n">
-        <v>1.50558278020306</v>
+        <v>1.61758504618697</v>
       </c>
       <c r="N7" t="n">
-        <v>1.36414491921329</v>
+        <v>1.4648241942971</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.174343297918035</v>
+        <v>0.0341354412947546</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.376640427292437</v>
+        <v>0.250984582254792</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.45323453320661</v>
+        <v>1.34862074273381</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.82586126458783</v>
+        <v>2.09420400463835</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.718458437828665</v>
+        <v>0.937004484699089</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.50253567414089</v>
+        <v>0.709630700256449</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.41198697688308</v>
+        <v>0.612493923104034</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.362741868648007</v>
+        <v>0.558386961055708</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0892188112807706</v>
+        <v>0.0507389437152283</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.131592319787009</v>
+        <v>0.280667822843683</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.401545193292471</v>
+        <v>1.4494767842976</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.397380009768025</v>
+        <v>2.19993888769246</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.12882132568531</v>
+        <v>0.969054062266684</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.078455650091499</v>
+        <v>0.725729672452396</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0585437231576946</v>
+        <v>0.621260151426987</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0483926305989214</v>
+        <v>0.562908098406829</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.006956352368539</v>
+        <v>0.0630225251294605</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0921627228496002</v>
+        <v>0.29351876221177</v>
       </c>
       <c r="I10" t="n">
-        <v>0.551307425747447</v>
+        <v>1.4597855782984</v>
       </c>
       <c r="J10" t="n">
-        <v>0.885123278464898</v>
+        <v>2.16398098134905</v>
       </c>
       <c r="K10" t="n">
-        <v>0.397125868879107</v>
+        <v>0.938285074359438</v>
       </c>
       <c r="L10" t="n">
-        <v>0.298746276661509</v>
+        <v>0.695315703324961</v>
       </c>
       <c r="M10" t="n">
-        <v>0.255713111585231</v>
+        <v>0.591029021886003</v>
       </c>
       <c r="N10" t="n">
-        <v>0.231364125715743</v>
+        <v>0.532943363709143</v>
       </c>
     </row>
     <row r="11">
@@ -2059,158 +2059,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.53593696630797</v>
+        <v>1.13138195696778</v>
       </c>
       <c r="B5" t="n">
-        <v>2.16882057083063</v>
+        <v>3.77611650573758</v>
       </c>
       <c r="C5" t="n">
-        <v>16.4279931453051</v>
+        <v>23.3432935390811</v>
       </c>
       <c r="D5" t="n">
-        <v>28.8472554733547</v>
+        <v>38.4086379384158</v>
       </c>
       <c r="E5" t="n">
-        <v>13.4052540723954</v>
+        <v>17.430040872612</v>
       </c>
       <c r="F5" t="n">
-        <v>10.271662065339</v>
+        <v>13.2154266621115</v>
       </c>
       <c r="G5" t="n">
-        <v>8.89376130861698</v>
+        <v>11.3805012255901</v>
       </c>
       <c r="H5" t="n">
-        <v>8.11072680560777</v>
+        <v>10.3460046013143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.37429310458399</v>
+        <v>1.91067300511368</v>
       </c>
       <c r="B6" t="n">
-        <v>4.55764194255777</v>
+        <v>5.98691642391148</v>
       </c>
       <c r="C6" t="n">
-        <v>28.3104237864553</v>
+        <v>34.5002228605569</v>
       </c>
       <c r="D6" t="n">
-        <v>46.4893472162856</v>
+        <v>55.0604014466333</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0205104887494</v>
+        <v>24.6293844101011</v>
       </c>
       <c r="F6" t="n">
-        <v>15.8966032067842</v>
+        <v>18.5363281215949</v>
       </c>
       <c r="G6" t="n">
-        <v>13.667263079599</v>
+        <v>15.8972121008653</v>
       </c>
       <c r="H6" t="n">
-        <v>12.411953460006</v>
+        <v>14.41642442397</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.76870631543672</v>
+        <v>3.15366362711473</v>
       </c>
       <c r="B7" t="n">
-        <v>8.29037188696624</v>
+        <v>9.29613102939758</v>
       </c>
       <c r="C7" t="n">
-        <v>46.8864591322478</v>
+        <v>51.2664736531717</v>
       </c>
       <c r="D7" t="n">
-        <v>74.2317021091466</v>
+        <v>80.3073643555655</v>
       </c>
       <c r="E7" t="n">
-        <v>33.0600584114165</v>
+        <v>35.6191719538917</v>
       </c>
       <c r="F7" t="n">
-        <v>24.8225897960666</v>
+        <v>26.6946459632846</v>
       </c>
       <c r="G7" t="n">
-        <v>21.2593445989274</v>
+        <v>22.8408549613742</v>
       </c>
       <c r="H7" t="n">
-        <v>19.2621935517354</v>
+        <v>20.6838194039442</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.96442444429452</v>
+        <v>0.384623304118762</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.24382050195379</v>
+        <v>2.82798509842435</v>
       </c>
       <c r="C8" t="n">
-        <v>-16.3744145855617</v>
+        <v>15.1956718998996</v>
       </c>
       <c r="D8" t="n">
-        <v>-20.5730105078837</v>
+        <v>23.5965797778193</v>
       </c>
       <c r="E8" t="n">
-        <v>-8.09527715911288</v>
+        <v>10.5577589510888</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.66235338095131</v>
+        <v>7.99581005207885</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.64209004753719</v>
+        <v>6.90131510012548</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.08721758880702</v>
+        <v>6.291661387459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.41415599612107</v>
+        <v>0.80423377605799</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.08579407637085</v>
+        <v>4.44870402211003</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.36466160730533</v>
+        <v>22.9748217480961</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.29864168200613</v>
+        <v>34.8699643547114</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.04187264469203</v>
+        <v>15.3599178586598</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.24355532665993</v>
+        <v>11.5031230872578</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.927942840195063</v>
+        <v>9.84723687392271</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.767043718103049</v>
+        <v>8.92233208669409</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.179246519001392</v>
+        <v>1.6239212233158</v>
       </c>
       <c r="B10" t="n">
-        <v>2.37478586150898</v>
+        <v>7.56319024694649</v>
       </c>
       <c r="C10" t="n">
-        <v>14.2057118054822</v>
+        <v>37.6147540457871</v>
       </c>
       <c r="D10" t="n">
-        <v>22.8072498554662</v>
+        <v>55.7599784401808</v>
       </c>
       <c r="E10" t="n">
-        <v>10.2328671451319</v>
+        <v>24.1770865677431</v>
       </c>
       <c r="F10" t="n">
-        <v>7.69788925563716</v>
+        <v>17.9164183792173</v>
       </c>
       <c r="G10" t="n">
-        <v>6.58904015874254</v>
+        <v>15.2292306641898</v>
       </c>
       <c r="H10" t="n">
-        <v>5.96163218296795</v>
+        <v>13.7325192441078</v>
       </c>
     </row>
     <row r="11">
@@ -2359,158 +2359,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.931994832372992</v>
+        <v>1.96747416883367</v>
       </c>
       <c r="B5" t="n">
-        <v>3.77158078548525</v>
+        <v>6.56666975974828</v>
       </c>
       <c r="C5" t="n">
-        <v>28.5682938110396</v>
+        <v>40.5940069759765</v>
       </c>
       <c r="D5" t="n">
-        <v>50.1654013801703</v>
+        <v>66.7926534788023</v>
       </c>
       <c r="E5" t="n">
-        <v>23.3117480366903</v>
+        <v>30.3108556463888</v>
       </c>
       <c r="F5" t="n">
-        <v>17.8624289172031</v>
+        <v>22.9816380115391</v>
       </c>
       <c r="G5" t="n">
-        <v>15.4662583495439</v>
+        <v>19.7907011437042</v>
       </c>
       <c r="H5" t="n">
-        <v>14.1045606943108</v>
+        <v>17.9917106494036</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-4.32912369191086</v>
+        <v>-6.01875956907752</v>
       </c>
       <c r="B6" t="n">
-        <v>-14.3569051223218</v>
+        <v>-18.8592241682614</v>
       </c>
       <c r="C6" t="n">
-        <v>-89.1799034232074</v>
+        <v>-108.678222763151</v>
       </c>
       <c r="D6" t="n">
-        <v>-146.444840466848</v>
+        <v>-173.444287534934</v>
       </c>
       <c r="E6" t="n">
-        <v>-66.2161438992684</v>
+        <v>-77.5843604332312</v>
       </c>
       <c r="F6" t="n">
-        <v>-50.0754615837408</v>
+        <v>-58.3907879364067</v>
       </c>
       <c r="G6" t="n">
-        <v>-43.0528772967837</v>
+        <v>-50.077379644585</v>
       </c>
       <c r="H6" t="n">
-        <v>-39.0985602761008</v>
+        <v>-45.4127902688874</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.91586546962632</v>
+        <v>-5.59936098708413</v>
       </c>
       <c r="B7" t="n">
-        <v>-14.7196373491386</v>
+        <v>-16.5053726622244</v>
       </c>
       <c r="C7" t="n">
-        <v>-83.2473723038796</v>
+        <v>-91.0241314421904</v>
       </c>
       <c r="D7" t="n">
-        <v>-131.799121891475</v>
+        <v>-142.586520351096</v>
       </c>
       <c r="E7" t="n">
-        <v>-58.6984609607745</v>
+        <v>-63.2421923873135</v>
       </c>
       <c r="F7" t="n">
-        <v>-44.0727538940638</v>
+        <v>-47.3966081498649</v>
       </c>
       <c r="G7" t="n">
-        <v>-37.7461767750798</v>
+        <v>-40.5541640784865</v>
       </c>
       <c r="H7" t="n">
-        <v>-34.2002153216091</v>
+        <v>-36.724326094441</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.42830396211046</v>
+        <v>0.475448315675499</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.2459569872034</v>
+        <v>3.49578597397235</v>
       </c>
       <c r="C8" t="n">
-        <v>-20.2410715926712</v>
+        <v>18.783980411478</v>
       </c>
       <c r="D8" t="n">
-        <v>-25.431124660422</v>
+        <v>29.1686800849763</v>
       </c>
       <c r="E8" t="n">
-        <v>-10.0068972654816</v>
+        <v>13.0508699209062</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.99946245821209</v>
+        <v>9.88394197910659</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.73827397009221</v>
+        <v>8.53099280559294</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.05237383587538</v>
+        <v>7.77737536294549</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-3.66873313143679</v>
+        <v>2.08641699199914</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.41115821332713</v>
+        <v>11.5412358202623</v>
       </c>
       <c r="C9" t="n">
-        <v>-16.5117886379953</v>
+        <v>59.603388853346</v>
       </c>
       <c r="D9" t="n">
-        <v>-16.3405136952418</v>
+        <v>90.4628583204746</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.29721320865849</v>
+        <v>39.848107067948</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.22614523447625</v>
+        <v>29.8424564906383</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.40735438752241</v>
+        <v>25.5466046684806</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.98993513416055</v>
+        <v>23.1471318764848</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.772716936602106</v>
+        <v>7.00059024830479</v>
       </c>
       <c r="B10" t="n">
-        <v>10.2375056777363</v>
+        <v>32.6042883907499</v>
       </c>
       <c r="C10" t="n">
-        <v>61.2396501183898</v>
+        <v>162.154097492273</v>
       </c>
       <c r="D10" t="n">
-        <v>98.3201701144209</v>
+        <v>240.376660954634</v>
       </c>
       <c r="E10" t="n">
-        <v>44.1130449678706</v>
+        <v>104.225423024506</v>
       </c>
       <c r="F10" t="n">
-        <v>33.1849646902878</v>
+        <v>77.2361996316534</v>
       </c>
       <c r="G10" t="n">
-        <v>28.4048078310087</v>
+        <v>65.6519553696227</v>
       </c>
       <c r="H10" t="n">
-        <v>25.7001038750199</v>
+        <v>59.1997560747836</v>
       </c>
     </row>
     <row r="11">
@@ -2659,158 +2659,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.00126655128633</v>
+        <v>4.22474471728711</v>
       </c>
       <c r="B5" t="n">
-        <v>8.09869133313508</v>
+        <v>14.1005680364848</v>
       </c>
       <c r="C5" t="n">
-        <v>61.3445148464864</v>
+        <v>87.1672519222649</v>
       </c>
       <c r="D5" t="n">
-        <v>107.719845997825</v>
+        <v>143.423438237788</v>
       </c>
       <c r="E5" t="n">
-        <v>50.057167676625</v>
+        <v>65.086306746505</v>
       </c>
       <c r="F5" t="n">
-        <v>38.3558795339134</v>
+        <v>49.3483245278952</v>
       </c>
       <c r="G5" t="n">
-        <v>33.210597777336</v>
+        <v>42.4964461707963</v>
       </c>
       <c r="H5" t="n">
-        <v>30.2866330988574</v>
+        <v>38.6334853717981</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.84245216388929</v>
+        <v>5.34214251566538</v>
       </c>
       <c r="B6" t="n">
-        <v>12.7429302279115</v>
+        <v>16.7391074664866</v>
       </c>
       <c r="C6" t="n">
-        <v>79.154474963197</v>
+        <v>96.4608317854713</v>
       </c>
       <c r="D6" t="n">
-        <v>129.981800980578</v>
+        <v>153.946023579353</v>
       </c>
       <c r="E6" t="n">
-        <v>58.7722558922411</v>
+        <v>68.8624799951256</v>
       </c>
       <c r="F6" t="n">
-        <v>44.4460771771734</v>
+        <v>51.8266109782632</v>
       </c>
       <c r="G6" t="n">
-        <v>38.2129579341419</v>
+        <v>44.4477796134089</v>
       </c>
       <c r="H6" t="n">
-        <v>34.7031774163853</v>
+        <v>40.3075741547857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.89554660104376</v>
+        <v>6.71525570408464</v>
       </c>
       <c r="B7" t="n">
-        <v>17.6531087920328</v>
+        <v>19.7947226788399</v>
       </c>
       <c r="C7" t="n">
-        <v>99.837712375247</v>
+        <v>109.164299156006</v>
       </c>
       <c r="D7" t="n">
-        <v>158.065323367546</v>
+        <v>171.002538740031</v>
       </c>
       <c r="E7" t="n">
-        <v>70.3964569701903</v>
+        <v>75.8457070632414</v>
       </c>
       <c r="F7" t="n">
-        <v>52.8559977941253</v>
+        <v>56.8422618164487</v>
       </c>
       <c r="G7" t="n">
-        <v>45.2685993064075</v>
+        <v>48.636189429583</v>
       </c>
       <c r="H7" t="n">
-        <v>41.0159644197106</v>
+        <v>44.0431043565889</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-12.1329150818441</v>
+        <v>2.37555682068859</v>
       </c>
       <c r="B8" t="n">
-        <v>-26.2111958148056</v>
+        <v>17.4665425038658</v>
       </c>
       <c r="C8" t="n">
-        <v>-101.133633445941</v>
+        <v>93.8533407627487</v>
       </c>
       <c r="D8" t="n">
-        <v>-127.065507759797</v>
+        <v>145.740040803177</v>
       </c>
       <c r="E8" t="n">
-        <v>-49.9990267484083</v>
+        <v>65.2081036662843</v>
       </c>
       <c r="F8" t="n">
-        <v>-34.9725095989363</v>
+        <v>49.3846860102926</v>
       </c>
       <c r="G8" t="n">
-        <v>-28.6710361972049</v>
+        <v>42.6247343368514</v>
       </c>
       <c r="H8" t="n">
-        <v>-25.2439660227423</v>
+        <v>38.8593175774556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-6.60282817763332</v>
+        <v>3.75504361083622</v>
       </c>
       <c r="B9" t="n">
-        <v>-9.73876993625749</v>
+        <v>20.7714200920618</v>
       </c>
       <c r="C9" t="n">
-        <v>-29.717207378173</v>
+        <v>107.27161701434</v>
       </c>
       <c r="D9" t="n">
-        <v>-29.4089540990111</v>
+        <v>162.811163567451</v>
       </c>
       <c r="E9" t="n">
-        <v>-9.5336966151484</v>
+        <v>71.7169101014863</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.806277506752</v>
+        <v>53.7091703176062</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.33265293876993</v>
+        <v>45.9776808791329</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.58139971068217</v>
+        <v>41.6592128971761</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.516325473268265</v>
+        <v>4.67775831212875</v>
       </c>
       <c r="B10" t="n">
-        <v>6.84064851404386</v>
+        <v>21.786017410147</v>
       </c>
       <c r="C10" t="n">
-        <v>40.9200184859445</v>
+        <v>108.350531953201</v>
       </c>
       <c r="D10" t="n">
-        <v>65.6970307773714</v>
+        <v>160.618445579582</v>
       </c>
       <c r="E10" t="n">
-        <v>29.4761092211809</v>
+        <v>69.6428903271521</v>
       </c>
       <c r="F10" t="n">
-        <v>22.1740223198012</v>
+        <v>51.6088303999353</v>
       </c>
       <c r="G10" t="n">
-        <v>18.9799461506972</v>
+        <v>43.8682981070239</v>
       </c>
       <c r="H10" t="n">
-        <v>17.1726769115016</v>
+        <v>39.5569718027521</v>
       </c>
     </row>
     <row r="11">
@@ -2959,158 +2959,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.64580547293032</v>
+        <v>5.5853892563922</v>
       </c>
       <c r="B5" t="n">
-        <v>10.7070004437987</v>
+        <v>18.6418745960544</v>
       </c>
       <c r="C5" t="n">
-        <v>81.1014669738853</v>
+        <v>115.240816895674</v>
       </c>
       <c r="D5" t="n">
-        <v>142.412692552658</v>
+        <v>189.61518024279</v>
       </c>
       <c r="E5" t="n">
-        <v>66.1788546423652</v>
+        <v>86.0483609702259</v>
       </c>
       <c r="F5" t="n">
-        <v>50.7089852297066</v>
+        <v>65.2417175672699</v>
       </c>
       <c r="G5" t="n">
-        <v>43.9065857079783</v>
+        <v>56.1830855497545</v>
       </c>
       <c r="H5" t="n">
-        <v>40.0409128699443</v>
+        <v>51.0759983318447</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.60568802920427</v>
+        <v>7.79356074534893</v>
       </c>
       <c r="B6" t="n">
-        <v>18.5904439115477</v>
+        <v>24.4203988344438</v>
       </c>
       <c r="C6" t="n">
-        <v>115.47711561099</v>
+        <v>140.725064870966</v>
       </c>
       <c r="D6" t="n">
-        <v>189.628236004822</v>
+        <v>224.589232270073</v>
       </c>
       <c r="E6" t="n">
-        <v>85.7418432949316</v>
+        <v>100.462299413317</v>
       </c>
       <c r="F6" t="n">
-        <v>64.8416251264354</v>
+        <v>75.6089602065498</v>
       </c>
       <c r="G6" t="n">
-        <v>55.7482336058765</v>
+        <v>64.8441087816689</v>
       </c>
       <c r="H6" t="n">
-        <v>50.6278745761864</v>
+        <v>58.8040335411854</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.91689100993928</v>
+        <v>10.1566838953651</v>
       </c>
       <c r="B7" t="n">
-        <v>26.6999580763705</v>
+        <v>29.9391043178149</v>
       </c>
       <c r="C7" t="n">
-        <v>151.002453237183</v>
+        <v>165.108720806002</v>
       </c>
       <c r="D7" t="n">
-        <v>239.070497834702</v>
+        <v>258.637765681951</v>
       </c>
       <c r="E7" t="n">
-        <v>106.473169795305</v>
+        <v>114.715046665049</v>
       </c>
       <c r="F7" t="n">
-        <v>79.9435919085713</v>
+        <v>85.9727329245387</v>
       </c>
       <c r="G7" t="n">
-        <v>68.4678102818125</v>
+        <v>73.5612199563604</v>
       </c>
       <c r="H7" t="n">
-        <v>62.0357889009574</v>
+        <v>66.6142747845563</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.0760224089916</v>
+        <v>4.32236154737706</v>
       </c>
       <c r="B8" t="n">
-        <v>-47.6916670289731</v>
+        <v>31.7806381336957</v>
       </c>
       <c r="C8" t="n">
-        <v>-184.014174927861</v>
+        <v>170.767572332028</v>
       </c>
       <c r="D8" t="n">
-        <v>-231.197612263253</v>
+        <v>265.176207445216</v>
       </c>
       <c r="E8" t="n">
-        <v>-90.9739850217319</v>
+        <v>118.647130394812</v>
       </c>
       <c r="F8" t="n">
-        <v>-63.6330099070836</v>
+        <v>89.8561827615237</v>
       </c>
       <c r="G8" t="n">
-        <v>-52.1673837910273</v>
+        <v>77.5563484991129</v>
       </c>
       <c r="H8" t="n">
-        <v>-45.9317778003584</v>
+        <v>70.705115782253</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-12.2528636043726</v>
+        <v>6.9682317870853</v>
       </c>
       <c r="B9" t="n">
-        <v>-18.0722285198248</v>
+        <v>38.5455096528625</v>
       </c>
       <c r="C9" t="n">
-        <v>-55.1462008266468</v>
+        <v>199.063864231634</v>
       </c>
       <c r="D9" t="n">
-        <v>-54.5741754333516</v>
+        <v>302.128561700089</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.6916741021046</v>
+        <v>133.085019624959</v>
       </c>
       <c r="F9" t="n">
-        <v>-10.774705084764</v>
+        <v>99.6680695758358</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.04010101060367</v>
+        <v>85.3207500636966</v>
       </c>
       <c r="H9" t="n">
-        <v>-6.64600092372191</v>
+        <v>77.3069720674724</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.2113266129566</v>
+        <v>10.9742660895533</v>
       </c>
       <c r="B10" t="n">
-        <v>16.048519827024</v>
+        <v>51.1111383139825</v>
       </c>
       <c r="C10" t="n">
-        <v>96.0005073562328</v>
+        <v>254.196024945537</v>
       </c>
       <c r="D10" t="n">
-        <v>154.128676373694</v>
+        <v>376.819288869718</v>
       </c>
       <c r="E10" t="n">
-        <v>69.1524966219914</v>
+        <v>163.385869619232</v>
       </c>
       <c r="F10" t="n">
-        <v>52.0214181613954</v>
+        <v>121.077020142534</v>
       </c>
       <c r="G10" t="n">
-        <v>44.5279481163179</v>
+        <v>102.917325821231</v>
       </c>
       <c r="H10" t="n">
-        <v>40.2879997900071</v>
+        <v>92.8027284211708</v>
       </c>
     </row>
     <row r="11">
@@ -3259,158 +3259,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.17852450256837</v>
+        <v>2.48790705227091</v>
       </c>
       <c r="B5" t="n">
-        <v>4.7692328484194</v>
+        <v>8.30367395110284</v>
       </c>
       <c r="C5" t="n">
-        <v>36.125129757595</v>
+        <v>51.3318638868516</v>
       </c>
       <c r="D5" t="n">
-        <v>63.4350670777613</v>
+        <v>84.4605313056324</v>
       </c>
       <c r="E5" t="n">
-        <v>29.4781315353306</v>
+        <v>38.328631052737</v>
       </c>
       <c r="F5" t="n">
-        <v>22.5873678942082</v>
+        <v>29.0607013740566</v>
       </c>
       <c r="G5" t="n">
-        <v>19.5573664089753</v>
+        <v>25.0257033737809</v>
       </c>
       <c r="H5" t="n">
-        <v>17.8354748318555</v>
+        <v>22.7508470078689</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.61010440446823</v>
+        <v>3.62881543210201</v>
       </c>
       <c r="B6" t="n">
-        <v>8.65602924774928</v>
+        <v>11.370556160918</v>
       </c>
       <c r="C6" t="n">
-        <v>53.7681238237437</v>
+        <v>65.5240016435458</v>
       </c>
       <c r="D6" t="n">
-        <v>88.2941561194918</v>
+        <v>104.572595065992</v>
       </c>
       <c r="E6" t="n">
-        <v>39.9228714950614</v>
+        <v>46.7769681108935</v>
       </c>
       <c r="F6" t="n">
-        <v>30.191371773397</v>
+        <v>35.2048274938326</v>
       </c>
       <c r="G6" t="n">
-        <v>25.9573328586887</v>
+        <v>30.1925282058331</v>
       </c>
       <c r="H6" t="n">
-        <v>23.5732059529055</v>
+        <v>27.3801656722115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.39217541864565</v>
+        <v>5.00285775506868</v>
       </c>
       <c r="B7" t="n">
-        <v>13.1515456913387</v>
+        <v>14.7470455671601</v>
       </c>
       <c r="C7" t="n">
-        <v>74.3789805801452</v>
+        <v>81.3272769757773</v>
       </c>
       <c r="D7" t="n">
-        <v>117.758483617499</v>
+        <v>127.396694149953</v>
       </c>
       <c r="E7" t="n">
-        <v>52.4452792569693</v>
+        <v>56.5049642918589</v>
       </c>
       <c r="F7" t="n">
-        <v>39.3776573996116</v>
+        <v>42.3474194990208</v>
       </c>
       <c r="G7" t="n">
-        <v>33.7250542765486</v>
+        <v>36.2339050345881</v>
       </c>
       <c r="H7" t="n">
-        <v>30.5568461903776</v>
+        <v>32.8120619522552</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.905289873364</v>
+        <v>0.764633885002503</v>
       </c>
       <c r="B8" t="n">
-        <v>-8.43674557135059</v>
+        <v>5.62205464250735</v>
       </c>
       <c r="C8" t="n">
-        <v>-32.5524535438281</v>
+        <v>30.2091046372373</v>
       </c>
       <c r="D8" t="n">
-        <v>-40.8992923267675</v>
+        <v>46.9101697038991</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.0934690073621</v>
+        <v>20.9889004572596</v>
       </c>
       <c r="F8" t="n">
-        <v>-11.2567991007559</v>
+        <v>15.8957276857445</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.22850828218099</v>
+        <v>13.7198638775304</v>
       </c>
       <c r="H8" t="n">
-        <v>-8.12541785771537</v>
+        <v>12.5078679276479</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.66541781057439</v>
+        <v>0.947126949350929</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.45638996935751</v>
+        <v>5.23913269308209</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.4955102747928</v>
+        <v>27.0568999735552</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.41776018233647</v>
+        <v>41.0655259035926</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.4046647461258</v>
+        <v>18.0890091623115</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.46450546837465</v>
+        <v>13.5469538857781</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.0928161656103</v>
+        <v>11.5968561599704</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.903329104513202</v>
+        <v>10.5076178369275</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.155822293055274</v>
+        <v>1.41170456289992</v>
       </c>
       <c r="B10" t="n">
-        <v>2.06444499183105</v>
+        <v>6.57482027354366</v>
       </c>
       <c r="C10" t="n">
-        <v>12.3492863367428</v>
+        <v>32.6991969538842</v>
       </c>
       <c r="D10" t="n">
-        <v>19.8267614376137</v>
+        <v>48.4731739822189</v>
       </c>
       <c r="E10" t="n">
-        <v>8.89561946289201</v>
+        <v>21.0175856656514</v>
       </c>
       <c r="F10" t="n">
-        <v>6.69191659721781</v>
+        <v>15.5750717544791</v>
       </c>
       <c r="G10" t="n">
-        <v>5.72797369950917</v>
+        <v>13.2390500902465</v>
       </c>
       <c r="H10" t="n">
-        <v>5.18255641603264</v>
+        <v>11.9379313470848</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_2.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">p_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_median</t>
   </si>
   <si>
     <t xml:space="preserve">n_viol</t>
@@ -472,10 +478,16 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
         <v>1.84513824071056</v>
@@ -490,39 +502,45 @@
         <v>0.0339393803188302</v>
       </c>
       <c r="F2" t="n">
+        <v>0.00476478498883382</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00476478498883382</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.504166666666667</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>305.958941322087</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>219.986816410931</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>172.032128026305</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>143.781143146268</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>125.127863454262</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>111.924950718939</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>102.155619670662</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>1.75097592618977</v>
@@ -537,39 +555,45 @@
         <v>0.0338051303243735</v>
       </c>
       <c r="F3" t="n">
+        <v>0.00475839552192277</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00475839552192277</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.504166666666667</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>320.230815000711</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>234.886769975759</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>184.516741111159</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>153.477532364993</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>132.784947783905</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>118.233936086707</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>107.566109931883</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
         <v>1.66016598147612</v>
@@ -584,39 +608,45 @@
         <v>0.0336690114661293</v>
       </c>
       <c r="F4" t="n">
+        <v>0.00471356747870508</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00471356747870508</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.495833333333333</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>330.83460335654</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>242.607747121165</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>188.575514578095</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>154.598681934824</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>132.033821271404</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>116.341275831496</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>104.956497497692</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>1.70599419478852</v>
@@ -631,39 +661,45 @@
         <v>0.0337116358533163</v>
       </c>
       <c r="F5" t="n">
+        <v>0.00469689487262155</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00469689487262155</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.495833333333333</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>297.216762939616</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>188.88876163263</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>130.412949014979</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>96.671736245233</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>74.9946715363091</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>59.9962744177698</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>49.0886568390619</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
         <v>1.65246021063674</v>
@@ -678,39 +714,45 @@
         <v>0.0336166617869516</v>
       </c>
       <c r="F6" t="n">
+        <v>0.00469007775806841</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.00469007775806841</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.491666666666667</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>307.224346263849</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>200.100040166797</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>139.771055953038</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>103.976596989415</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>80.9258040028391</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>65.1175728470531</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>53.731219933595</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="n">
         <v>1.60607729949283</v>
@@ -725,39 +767,45 @@
         <v>0.0335197705951334</v>
       </c>
       <c r="F7" t="n">
+        <v>0.00467420681917463</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.00467420681917463</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.4875</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>314.668573595124</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>206.219833547116</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>143.504334912525</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>105.902653793024</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>81.8196981772802</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>65.4510274707899</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>53.7423740102523</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
         <v>1.63297050973971</v>
@@ -772,39 +820,45 @@
         <v>0.0330575657068194</v>
       </c>
       <c r="F8" t="n">
+        <v>0.00459923325470504</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00459923325470504</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.4875</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>266.000807930288</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>155.562935242816</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>72.7835029649257</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>24.721654691844</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-3.38530595420321</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>-21.3416730890296</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>-33.7208561709312</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
         <v>1.59448337414732</v>
@@ -819,39 +873,45 @@
         <v>0.0330373637974588</v>
       </c>
       <c r="F9" t="n">
+        <v>0.0045943465213338</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0045943465213338</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.491666666666667</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>270.271568685561</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>159.254117451636</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>75.9090207918885</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>27.1105522435488</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-1.66299881454391</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>-20.1584247153941</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>-32.9580172322294</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
         <v>1.55806542259052</v>
@@ -866,39 +926,45 @@
         <v>0.0329868963264486</v>
       </c>
       <c r="F10" t="n">
+        <v>0.00461090203937132</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.00461090203937132</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.4875</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>273.431157313886</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>160.852162605097</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>76.2284892037397</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>26.2981452880862</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-3.31648855059343</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>-22.3938021710369</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>-35.5887361600515</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
         <v>1.49985766235012</v>
@@ -913,33 +979,39 @@
         <v>0.0327985423225575</v>
       </c>
       <c r="F11" t="n">
+        <v>0.00458935788467481</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.00458935788467481</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.466666666666667</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.0125</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>257.220473555428</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>124.3524000611</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>30.9898919142668</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-22.5932774757253</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-53.7388405830577</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>-73.4983798489656</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>-87.0201996341448</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>-96.8187561851092</v>
       </c>
     </row>
@@ -1000,6 +1072,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1015,33 +1093,39 @@
         <v>0.00114083799627264</v>
       </c>
       <c r="E2" t="n">
+        <v>0.000175427104159008</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.000175427104159008</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0375</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>48.7384677666593</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>95.6344163498311</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>141.042236112038</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>166.374420621993</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>178.86670403732</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>185.423330567905</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>189.175819304807</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>191.49661822277</v>
       </c>
     </row>
@@ -1059,33 +1143,39 @@
         <v>0.00100658800181602</v>
       </c>
       <c r="E3" t="n">
+        <v>0.000169037637247963</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.000169037637247963</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0375</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>63.0103414452833</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>110.534369914659</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>153.526849196892</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>176.070809840718</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>186.523788366962</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>191.732315935673</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>194.586309566028</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>196.283890100564</v>
       </c>
     </row>
@@ -1103,33 +1193,39 @@
         <v>0.00087046914357182</v>
       </c>
       <c r="E4" t="n">
+        <v>0.000124209594030268</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000124209594030268</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0291666666666667</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>73.6141298011119</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>118.255347060064</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>157.585622663829</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>177.191959410549</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>185.772661854462</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>189.839655680462</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>191.976697131837</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>193.202523601104</v>
       </c>
     </row>
@@ -1147,33 +1243,39 @@
         <v>0.000913093530758732</v>
       </c>
       <c r="E5" t="n">
+        <v>0.000107536987946747</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.000107536987946747</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0291666666666667</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>39.9962893841882</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>64.5363615715299</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>99.4230571007118</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>119.265013720958</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>128.733512119367</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>133.494654266735</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>136.108856473207</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>137.669294341224</v>
       </c>
     </row>
@@ -1191,33 +1293,39 @@
         <v>0.000818119464394119</v>
       </c>
       <c r="E6" t="n">
+        <v>0.000100719873393598</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.000100719873393598</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.025</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>50.0038727084208</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>75.7476401056969</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>108.781164038771</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>126.56987446514</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>134.664644585897</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>138.615952696019</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>140.75141956774</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>142.01322774245</v>
       </c>
     </row>
@@ -1235,33 +1343,39 @@
         <v>0.000721228272575869</v>
       </c>
       <c r="E7" t="n">
+        <v>0.0000848489344998232</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0000848489344998232</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0208333333333333</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>57.4481000396968</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>81.8674334860162</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>112.514442998258</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.49593126875</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>135.558538760338</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>138.949407319755</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>140.762573644397</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>141.8224565217</v>
       </c>
     </row>
@@ -1279,33 +1393,39 @@
         <v>0.000259023384261918</v>
       </c>
       <c r="E8" t="n">
+        <v>0.00000987537003023509</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00000987537003023509</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0208333333333333</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>8.78033437486027</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>31.210535181716</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>41.7936110506589</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>47.3149321675693</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>50.3535346288545</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>52.156706759936</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>53.2993434632136</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>54.0623310393967</v>
       </c>
     </row>
@@ -1323,33 +1443,39 @@
         <v>0.000238821474901292</v>
       </c>
       <c r="E9" t="n">
+        <v>0.00000498863665898946</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.00000498863665898946</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.025</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>13.0510951301332</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>34.9017173905357</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>44.9191288776217</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>49.7038297192741</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>52.0758417685138</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>53.3399551335716</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>54.0621824019155</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>54.5000619342742</v>
       </c>
     </row>
@@ -1367,33 +1493,39 @@
         <v>0.000188354003891042</v>
       </c>
       <c r="E10" t="n">
+        <v>0.0000215441546965144</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0000215441546965144</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0208333333333333</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>16.2106837584587</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>36.499762543997</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>45.2385972894729</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>48.8914227638114</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>50.4223520324643</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>51.1045776779287</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>51.4314634740933</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>51.5989135914275</v>
       </c>
     </row>
@@ -1438,6 +1570,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1498,6 +1636,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1513,33 +1657,39 @@
         <v>0.0347831920410688</v>
       </c>
       <c r="E2" t="n">
+        <v>0.0382247601009303</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0382247601009303</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0803571428571428</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.189481292421914</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>0.769059674785861</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>4.55123356035671</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>7.36389046700948</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>3.3284436749406</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>2.52282201252514</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>2.17392996224038</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>1.97788760946944</v>
       </c>
     </row>
@@ -1557,33 +1707,39 @@
         <v>0.0306900224990708</v>
       </c>
       <c r="E3" t="n">
+        <v>0.0368325246136129</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0368325246136129</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0803571428571428</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.244966275717961</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>0.888880068742929</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>4.95409437443739</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7.79306189772123</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>3.47093064054248</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>2.60866044026644</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>2.23610506967484</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>2.02733331675203</v>
       </c>
     </row>
@@ -1601,33 +1757,39 @@
         <v>0.0265398728702997</v>
       </c>
       <c r="E4" t="n">
+        <v>0.0270646999322148</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0270646999322148</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0625</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.286190787162395</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.950969559107504</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>5.08506525610956</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7.8426850465112</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>3.45695329186225</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>2.58290939297669</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>2.20611648719442</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>1.99550718490658</v>
       </c>
     </row>
@@ -1645,33 +1807,39 @@
         <v>0.0278394546251143</v>
       </c>
       <c r="E5" t="n">
+        <v>0.0234318156589714</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0234318156589714</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0625</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.155494190766932</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.518979621943928</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>3.20824149292823</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>5.27878320660202</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>2.39553944079606</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>1.81629383587854</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>1.56410646086131</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>1.42192793799181</v>
       </c>
     </row>
@@ -1689,33 +1857,39 @@
         <v>0.0249437751333068</v>
       </c>
       <c r="E6" t="n">
+        <v>0.0219463977150116</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0219463977150116</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0535714285714285</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.19440082671975</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>0.609136937192032</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>3.51021437376138</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>5.60210330710671</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>2.50590900594072</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>1.88597290145532</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>1.61745686816963</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>1.46679458958276</v>
       </c>
     </row>
@@ -1733,33 +1907,39 @@
         <v>0.0219896440970743</v>
       </c>
       <c r="E7" t="n">
+        <v>0.0184881930396316</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0184881930396316</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0446428571428571</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.223341864065566</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>0.658350248533931</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>3.6306820078472</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>5.68735241740861</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>2.5225430487437</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>1.89050979906343</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>1.61758504618697</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>1.4648241942971</v>
       </c>
     </row>
@@ -1777,33 +1957,39 @@
         <v>0.00789740536986524</v>
       </c>
       <c r="E8" t="n">
+        <v>0.00215179776308398</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00215179776308398</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0446428571428571</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.0341354412947546</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>0.250984582254792</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>1.34862074273381</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2.09420400463835</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.937004484699089</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.709630700256449</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>0.612493923104034</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>0.558386961055708</v>
       </c>
     </row>
@@ -1821,33 +2007,39 @@
         <v>0.0072814661259211</v>
       </c>
       <c r="E9" t="n">
+        <v>0.00108700101067471</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.00108700101067471</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0535714285714285</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.0507389437152283</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>0.280667822843683</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>1.4494767842976</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2.19993888769246</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.969054062266684</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.725729672452396</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.621260151426987</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>0.562908098406829</v>
       </c>
     </row>
@@ -1865,33 +2057,39 @@
         <v>0.00574275533463265</v>
       </c>
       <c r="E10" t="n">
+        <v>0.00469437233658689</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.00469437233658689</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0446428571428571</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.0630225251294605</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>0.29351876221177</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>1.4597855782984</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2.16398098134905</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.938285074359438</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.695315703324961</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>0.591029021886003</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>0.532943363709143</v>
       </c>
     </row>
@@ -1936,6 +2134,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1955,28 +2159,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2255,28 +2459,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2555,28 +2759,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2855,28 +3059,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -3155,262 +3359,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.35798941680605</v>
+        <v>4.95703025791659</v>
       </c>
       <c r="B2" t="n">
-        <v>9.57052039733517</v>
+        <v>20.1194114169769</v>
       </c>
       <c r="C2" t="n">
-        <v>56.6375731955503</v>
+        <v>119.065065374889</v>
       </c>
       <c r="D2" t="n">
-        <v>91.6395258116735</v>
+        <v>192.647133626622</v>
       </c>
       <c r="E2" t="n">
-        <v>41.4206323992608</v>
+        <v>87.0755935721253</v>
       </c>
       <c r="F2" t="n">
-        <v>31.3951183780907</v>
+        <v>65.9996820349892</v>
       </c>
       <c r="G2" t="n">
-        <v>27.0533506412137</v>
+        <v>56.8722983872297</v>
       </c>
       <c r="H2" t="n">
-        <v>24.6137124733975</v>
+        <v>51.74362387748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.04846920893462</v>
+        <v>6.65081414558871</v>
       </c>
       <c r="B3" t="n">
-        <v>11.0616186332454</v>
+        <v>24.1330204233247</v>
       </c>
       <c r="C3" t="n">
-        <v>61.6509522152208</v>
+        <v>134.503252937661</v>
       </c>
       <c r="D3" t="n">
-        <v>96.9803258383087</v>
+        <v>211.580986627265</v>
       </c>
       <c r="E3" t="n">
-        <v>43.1938035267508</v>
+        <v>94.2354801076998</v>
       </c>
       <c r="F3" t="n">
-        <v>32.4633299233158</v>
+        <v>70.824915414631</v>
       </c>
       <c r="G3" t="n">
-        <v>27.8270853115092</v>
+        <v>60.7100678851757</v>
       </c>
       <c r="H3" t="n">
-        <v>25.229036830692</v>
+        <v>55.0419320429302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.57905259459832</v>
+        <v>10.5743196074288</v>
       </c>
       <c r="B4" t="n">
-        <v>15.2155129457201</v>
+        <v>35.136896455134</v>
       </c>
       <c r="C4" t="n">
-        <v>81.3610440977529</v>
+        <v>187.885521319113</v>
       </c>
       <c r="D4" t="n">
-        <v>125.482960744179</v>
+        <v>289.775429476539</v>
       </c>
       <c r="E4" t="n">
-        <v>55.3112526697959</v>
+        <v>127.729230345077</v>
       </c>
       <c r="F4" t="n">
-        <v>41.326550287627</v>
+        <v>95.4346214606385</v>
       </c>
       <c r="G4" t="n">
-        <v>35.2978637951107</v>
+        <v>81.5126896924693</v>
       </c>
       <c r="H4" t="n">
-        <v>31.9281149585053</v>
+        <v>73.7309923961637</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.48790705227091</v>
+        <v>6.63602825448984</v>
       </c>
       <c r="B5" t="n">
-        <v>8.30367395110284</v>
+        <v>22.1485022542512</v>
       </c>
       <c r="C5" t="n">
-        <v>51.3318638868516</v>
+        <v>136.918177388438</v>
       </c>
       <c r="D5" t="n">
-        <v>84.4605313056324</v>
+        <v>225.282721724593</v>
       </c>
       <c r="E5" t="n">
-        <v>38.328631052737</v>
+        <v>102.234477927829</v>
       </c>
       <c r="F5" t="n">
-        <v>29.0607013740566</v>
+        <v>77.5140032813943</v>
       </c>
       <c r="G5" t="n">
-        <v>25.0257033737809</v>
+        <v>66.7513983391404</v>
       </c>
       <c r="H5" t="n">
-        <v>22.7508470078689</v>
+        <v>60.6836430725925</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.62881543210201</v>
+        <v>8.85798340320687</v>
       </c>
       <c r="B6" t="n">
-        <v>11.370556160918</v>
+        <v>27.7556683835805</v>
       </c>
       <c r="C6" t="n">
-        <v>65.5240016435458</v>
+        <v>159.944899356323</v>
       </c>
       <c r="D6" t="n">
-        <v>104.572595065992</v>
+        <v>255.262999415835</v>
       </c>
       <c r="E6" t="n">
-        <v>46.7769681108935</v>
+        <v>114.183158369842</v>
       </c>
       <c r="F6" t="n">
-        <v>35.2048274938326</v>
+        <v>85.9354198327175</v>
       </c>
       <c r="G6" t="n">
-        <v>30.1925282058331</v>
+        <v>73.7003352064137</v>
       </c>
       <c r="H6" t="n">
-        <v>27.3801656722115</v>
+        <v>66.8353234380441</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.00285775506868</v>
+        <v>12.0802429738161</v>
       </c>
       <c r="B7" t="n">
-        <v>14.7470455671601</v>
+        <v>35.6092262300962</v>
       </c>
       <c r="C7" t="n">
-        <v>81.3272769757773</v>
+        <v>196.378412972236</v>
       </c>
       <c r="D7" t="n">
-        <v>127.396694149953</v>
+        <v>307.620782908157</v>
       </c>
       <c r="E7" t="n">
-        <v>56.5049642918589</v>
+        <v>136.440756721673</v>
       </c>
       <c r="F7" t="n">
-        <v>42.3474194990208</v>
+        <v>102.254979435302</v>
       </c>
       <c r="G7" t="n">
-        <v>36.2339050345881</v>
+        <v>87.4928687037983</v>
       </c>
       <c r="H7" t="n">
-        <v>32.8120619522552</v>
+        <v>79.2302520401578</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.764633885002503</v>
+        <v>15.8636847199949</v>
       </c>
       <c r="B8" t="n">
-        <v>5.62205464250735</v>
+        <v>116.639484695382</v>
       </c>
       <c r="C8" t="n">
-        <v>30.2091046372373</v>
+        <v>626.741400084433</v>
       </c>
       <c r="D8" t="n">
-        <v>46.9101697038991</v>
+        <v>973.234585780455</v>
       </c>
       <c r="E8" t="n">
-        <v>20.9889004572596</v>
+        <v>435.451928045582</v>
       </c>
       <c r="F8" t="n">
-        <v>15.8957276857445</v>
+        <v>329.785034834964</v>
       </c>
       <c r="G8" t="n">
-        <v>13.7198638775304</v>
+        <v>284.642884945749</v>
       </c>
       <c r="H8" t="n">
-        <v>12.5078679276479</v>
+        <v>259.497881555291</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.947126949350929</v>
+        <v>46.6779176992064</v>
       </c>
       <c r="B9" t="n">
-        <v>5.23913269308209</v>
+        <v>258.203828779764</v>
       </c>
       <c r="C9" t="n">
-        <v>27.0568999735552</v>
+        <v>1333.46406310874</v>
       </c>
       <c r="D9" t="n">
-        <v>41.0655259035926</v>
+        <v>2023.86094041158</v>
       </c>
       <c r="E9" t="n">
-        <v>18.0890091623115</v>
+        <v>891.493248626499</v>
       </c>
       <c r="F9" t="n">
-        <v>13.5469538857781</v>
+        <v>667.643972108113</v>
       </c>
       <c r="G9" t="n">
-        <v>11.5968561599704</v>
+        <v>571.535946448998</v>
       </c>
       <c r="H9" t="n">
-        <v>10.5076178369275</v>
+        <v>517.854254852466</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.41170456289992</v>
+        <v>13.4251228089168</v>
       </c>
       <c r="B10" t="n">
-        <v>6.57482027354366</v>
+        <v>62.5256671534447</v>
       </c>
       <c r="C10" t="n">
-        <v>32.6991969538842</v>
+        <v>310.965018032582</v>
       </c>
       <c r="D10" t="n">
-        <v>48.4731739822189</v>
+        <v>460.973443559955</v>
       </c>
       <c r="E10" t="n">
-        <v>21.0175856656514</v>
+        <v>199.874446908834</v>
       </c>
       <c r="F10" t="n">
-        <v>15.5750717544791</v>
+        <v>148.116862803111</v>
       </c>
       <c r="G10" t="n">
-        <v>13.2390500902465</v>
+        <v>125.901607181785</v>
       </c>
       <c r="H10" t="n">
-        <v>11.9379313470848</v>
+        <v>113.528140824174</v>
       </c>
     </row>
     <row r="11">
@@ -3455,262 +3659,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H2" t="e">
-        <v>#NUM!</v>
+      <c r="A2" t="n">
+        <v>4.95703025791659</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20.1194114169769</v>
+      </c>
+      <c r="C2" t="n">
+        <v>119.065065374889</v>
+      </c>
+      <c r="D2" t="n">
+        <v>192.647133626622</v>
+      </c>
+      <c r="E2" t="n">
+        <v>87.0755935721253</v>
+      </c>
+      <c r="F2" t="n">
+        <v>65.9996820349892</v>
+      </c>
+      <c r="G2" t="n">
+        <v>56.8722983872297</v>
+      </c>
+      <c r="H2" t="n">
+        <v>51.74362387748</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H3" t="e">
-        <v>#NUM!</v>
+      <c r="A3" t="n">
+        <v>6.65081414558871</v>
+      </c>
+      <c r="B3" t="n">
+        <v>24.1330204233247</v>
+      </c>
+      <c r="C3" t="n">
+        <v>134.503252937661</v>
+      </c>
+      <c r="D3" t="n">
+        <v>211.580986627265</v>
+      </c>
+      <c r="E3" t="n">
+        <v>94.2354801076998</v>
+      </c>
+      <c r="F3" t="n">
+        <v>70.824915414631</v>
+      </c>
+      <c r="G3" t="n">
+        <v>60.7100678851757</v>
+      </c>
+      <c r="H3" t="n">
+        <v>55.0419320429302</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H4" t="e">
-        <v>#NUM!</v>
+      <c r="A4" t="n">
+        <v>10.5743196074288</v>
+      </c>
+      <c r="B4" t="n">
+        <v>35.136896455134</v>
+      </c>
+      <c r="C4" t="n">
+        <v>187.885521319113</v>
+      </c>
+      <c r="D4" t="n">
+        <v>289.775429476539</v>
+      </c>
+      <c r="E4" t="n">
+        <v>127.729230345077</v>
+      </c>
+      <c r="F4" t="n">
+        <v>95.4346214606385</v>
+      </c>
+      <c r="G4" t="n">
+        <v>81.5126896924693</v>
+      </c>
+      <c r="H4" t="n">
+        <v>73.7309923961637</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H5" t="e">
-        <v>#NUM!</v>
+      <c r="A5" t="n">
+        <v>6.63602825448984</v>
+      </c>
+      <c r="B5" t="n">
+        <v>22.1485022542512</v>
+      </c>
+      <c r="C5" t="n">
+        <v>136.918177388438</v>
+      </c>
+      <c r="D5" t="n">
+        <v>225.282721724593</v>
+      </c>
+      <c r="E5" t="n">
+        <v>102.234477927829</v>
+      </c>
+      <c r="F5" t="n">
+        <v>77.5140032813943</v>
+      </c>
+      <c r="G5" t="n">
+        <v>66.7513983391404</v>
+      </c>
+      <c r="H5" t="n">
+        <v>60.6836430725925</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#NUM!</v>
+      <c r="A6" t="n">
+        <v>8.85798340320687</v>
+      </c>
+      <c r="B6" t="n">
+        <v>27.7556683835805</v>
+      </c>
+      <c r="C6" t="n">
+        <v>159.944899356323</v>
+      </c>
+      <c r="D6" t="n">
+        <v>255.262999415835</v>
+      </c>
+      <c r="E6" t="n">
+        <v>114.183158369842</v>
+      </c>
+      <c r="F6" t="n">
+        <v>85.9354198327175</v>
+      </c>
+      <c r="G6" t="n">
+        <v>73.7003352064137</v>
+      </c>
+      <c r="H6" t="n">
+        <v>66.8353234380441</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H7" t="e">
-        <v>#NUM!</v>
+      <c r="A7" t="n">
+        <v>12.0802429738161</v>
+      </c>
+      <c r="B7" t="n">
+        <v>35.6092262300962</v>
+      </c>
+      <c r="C7" t="n">
+        <v>196.378412972236</v>
+      </c>
+      <c r="D7" t="n">
+        <v>307.620782908157</v>
+      </c>
+      <c r="E7" t="n">
+        <v>136.440756721673</v>
+      </c>
+      <c r="F7" t="n">
+        <v>102.254979435302</v>
+      </c>
+      <c r="G7" t="n">
+        <v>87.4928687037983</v>
+      </c>
+      <c r="H7" t="n">
+        <v>79.2302520401578</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H8" t="e">
-        <v>#NUM!</v>
+      <c r="A8" t="n">
+        <v>15.8636847199949</v>
+      </c>
+      <c r="B8" t="n">
+        <v>116.639484695382</v>
+      </c>
+      <c r="C8" t="n">
+        <v>626.741400084433</v>
+      </c>
+      <c r="D8" t="n">
+        <v>973.234585780455</v>
+      </c>
+      <c r="E8" t="n">
+        <v>435.451928045582</v>
+      </c>
+      <c r="F8" t="n">
+        <v>329.785034834964</v>
+      </c>
+      <c r="G8" t="n">
+        <v>284.642884945749</v>
+      </c>
+      <c r="H8" t="n">
+        <v>259.497881555291</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H9" t="e">
-        <v>#NUM!</v>
+      <c r="A9" t="n">
+        <v>46.6779176992064</v>
+      </c>
+      <c r="B9" t="n">
+        <v>258.203828779764</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1333.46406310874</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2023.86094041158</v>
+      </c>
+      <c r="E9" t="n">
+        <v>891.493248626499</v>
+      </c>
+      <c r="F9" t="n">
+        <v>667.643972108113</v>
+      </c>
+      <c r="G9" t="n">
+        <v>571.535946448998</v>
+      </c>
+      <c r="H9" t="n">
+        <v>517.854254852466</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H10" t="e">
-        <v>#NUM!</v>
+      <c r="A10" t="n">
+        <v>13.4251228089168</v>
+      </c>
+      <c r="B10" t="n">
+        <v>62.5256671534447</v>
+      </c>
+      <c r="C10" t="n">
+        <v>310.965018032582</v>
+      </c>
+      <c r="D10" t="n">
+        <v>460.973443559955</v>
+      </c>
+      <c r="E10" t="n">
+        <v>199.874446908834</v>
+      </c>
+      <c r="F10" t="n">
+        <v>148.116862803111</v>
+      </c>
+      <c r="G10" t="n">
+        <v>125.901607181785</v>
+      </c>
+      <c r="H10" t="n">
+        <v>113.528140824174</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_2.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_2.xlsx
@@ -13,8 +13,10 @@
     <sheet name="elast_nmax" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="elast_pmean" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="elast_pmax" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="elast_nviol" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="elast_pviol" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nmedian" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="elast_pmedian" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nviol" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="elast_pviol" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -1021,6 +1023,606 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.35798941680605</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9.57052039733517</v>
+      </c>
+      <c r="C2" t="n">
+        <v>56.6375731955503</v>
+      </c>
+      <c r="D2" t="n">
+        <v>91.6395258116735</v>
+      </c>
+      <c r="E2" t="n">
+        <v>41.4206323992608</v>
+      </c>
+      <c r="F2" t="n">
+        <v>31.3951183780907</v>
+      </c>
+      <c r="G2" t="n">
+        <v>27.0533506412137</v>
+      </c>
+      <c r="H2" t="n">
+        <v>24.6137124733975</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.04846920893462</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11.0616186332454</v>
+      </c>
+      <c r="C3" t="n">
+        <v>61.6509522152208</v>
+      </c>
+      <c r="D3" t="n">
+        <v>96.9803258383087</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43.1938035267508</v>
+      </c>
+      <c r="F3" t="n">
+        <v>32.4633299233158</v>
+      </c>
+      <c r="G3" t="n">
+        <v>27.8270853115092</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25.229036830692</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4.57905259459832</v>
+      </c>
+      <c r="B4" t="n">
+        <v>15.2155129457201</v>
+      </c>
+      <c r="C4" t="n">
+        <v>81.3610440977529</v>
+      </c>
+      <c r="D4" t="n">
+        <v>125.482960744179</v>
+      </c>
+      <c r="E4" t="n">
+        <v>55.3112526697959</v>
+      </c>
+      <c r="F4" t="n">
+        <v>41.326550287627</v>
+      </c>
+      <c r="G4" t="n">
+        <v>35.2978637951107</v>
+      </c>
+      <c r="H4" t="n">
+        <v>31.9281149585053</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2.48790705227091</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.30367395110284</v>
+      </c>
+      <c r="C5" t="n">
+        <v>51.3318638868516</v>
+      </c>
+      <c r="D5" t="n">
+        <v>84.4605313056324</v>
+      </c>
+      <c r="E5" t="n">
+        <v>38.328631052737</v>
+      </c>
+      <c r="F5" t="n">
+        <v>29.0607013740566</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25.0257033737809</v>
+      </c>
+      <c r="H5" t="n">
+        <v>22.7508470078689</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3.62881543210201</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11.370556160918</v>
+      </c>
+      <c r="C6" t="n">
+        <v>65.5240016435458</v>
+      </c>
+      <c r="D6" t="n">
+        <v>104.572595065992</v>
+      </c>
+      <c r="E6" t="n">
+        <v>46.7769681108935</v>
+      </c>
+      <c r="F6" t="n">
+        <v>35.2048274938326</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30.1925282058331</v>
+      </c>
+      <c r="H6" t="n">
+        <v>27.3801656722115</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5.00285775506868</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.7470455671601</v>
+      </c>
+      <c r="C7" t="n">
+        <v>81.3272769757773</v>
+      </c>
+      <c r="D7" t="n">
+        <v>127.396694149953</v>
+      </c>
+      <c r="E7" t="n">
+        <v>56.5049642918589</v>
+      </c>
+      <c r="F7" t="n">
+        <v>42.3474194990208</v>
+      </c>
+      <c r="G7" t="n">
+        <v>36.2339050345881</v>
+      </c>
+      <c r="H7" t="n">
+        <v>32.8120619522552</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.764633885002503</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.62205464250735</v>
+      </c>
+      <c r="C8" t="n">
+        <v>30.2091046372373</v>
+      </c>
+      <c r="D8" t="n">
+        <v>46.9101697038991</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20.9889004572596</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15.8957276857445</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.7198638775304</v>
+      </c>
+      <c r="H8" t="n">
+        <v>12.5078679276479</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.947126949350929</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.23913269308209</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27.0568999735552</v>
+      </c>
+      <c r="D9" t="n">
+        <v>41.0655259035926</v>
+      </c>
+      <c r="E9" t="n">
+        <v>18.0890091623115</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13.5469538857781</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11.5968561599704</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10.5076178369275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.41170456289992</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6.57482027354366</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32.6991969538842</v>
+      </c>
+      <c r="D10" t="n">
+        <v>48.4731739822189</v>
+      </c>
+      <c r="E10" t="n">
+        <v>21.0175856656514</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15.5750717544791</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13.2390500902465</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11.9379313470848</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H2" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H4" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H5" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H9" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H10" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_2.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_2.xlsx
@@ -504,7 +504,7 @@
         <v>0.0339393803188302</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00476478498883382</v>
+        <v>1.07769952518071</v>
       </c>
       <c r="G2" t="n">
         <v>0.00476478498883382</v>
@@ -557,7 +557,7 @@
         <v>0.0338051303243735</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00475839552192277</v>
+        <v>1.0182239108696</v>
       </c>
       <c r="G3" t="n">
         <v>0.00475839552192277</v>
@@ -610,7 +610,7 @@
         <v>0.0336690114661293</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00471356747870508</v>
+        <v>0.986639904554894</v>
       </c>
       <c r="G4" t="n">
         <v>0.00471356747870508</v>
@@ -663,7 +663,7 @@
         <v>0.0337116358533163</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00469689487262155</v>
+        <v>0.996635695678175</v>
       </c>
       <c r="G5" t="n">
         <v>0.00469689487262155</v>
@@ -716,7 +716,7 @@
         <v>0.0336166617869516</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00469007775806841</v>
+        <v>0.956908139201134</v>
       </c>
       <c r="G6" t="n">
         <v>0.00469007775806841</v>
@@ -769,7 +769,7 @@
         <v>0.0335197705951334</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00467420681917463</v>
+        <v>0.954002355356946</v>
       </c>
       <c r="G7" t="n">
         <v>0.00467420681917463</v>
@@ -822,7 +822,7 @@
         <v>0.0330575657068194</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00459923325470504</v>
+        <v>0.927315569683029</v>
       </c>
       <c r="G8" t="n">
         <v>0.00459923325470504</v>
@@ -875,7 +875,7 @@
         <v>0.0330373637974588</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0045943465213338</v>
+        <v>0.916288896626523</v>
       </c>
       <c r="G9" t="n">
         <v>0.0045943465213338</v>
@@ -928,7 +928,7 @@
         <v>0.0329868963264486</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00461090203937132</v>
+        <v>0.912450497999775</v>
       </c>
       <c r="G10" t="n">
         <v>0.00461090203937132</v>
@@ -981,7 +981,7 @@
         <v>0.0327985423225575</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00458935788467481</v>
+        <v>0.885502158941411</v>
       </c>
       <c r="G11" t="n">
         <v>0.00458935788467481</v>
@@ -1695,7 +1695,7 @@
         <v>0.00114083799627264</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000175427104159008</v>
+        <v>0.192197366239296</v>
       </c>
       <c r="F2" t="n">
         <v>0.000175427104159008</v>
@@ -1745,7 +1745,7 @@
         <v>0.00100658800181602</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000169037637247963</v>
+        <v>0.13272175192819</v>
       </c>
       <c r="F3" t="n">
         <v>0.000169037637247963</v>
@@ -1795,7 +1795,7 @@
         <v>0.00087046914357182</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000124209594030268</v>
+        <v>0.101137745613483</v>
       </c>
       <c r="F4" t="n">
         <v>0.000124209594030268</v>
@@ -1845,7 +1845,7 @@
         <v>0.000913093530758732</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000107536987946747</v>
+        <v>0.111133536736764</v>
       </c>
       <c r="F5" t="n">
         <v>0.000107536987946747</v>
@@ -1895,7 +1895,7 @@
         <v>0.000818119464394119</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000100719873393598</v>
+        <v>0.0714059802597224</v>
       </c>
       <c r="F6" t="n">
         <v>0.000100719873393598</v>
@@ -1945,7 +1945,7 @@
         <v>0.000721228272575869</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0000848489344998232</v>
+        <v>0.0685001964155344</v>
       </c>
       <c r="F7" t="n">
         <v>0.0000848489344998232</v>
@@ -1995,7 +1995,7 @@
         <v>0.000259023384261918</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00000987537003023509</v>
+        <v>0.0418134107416173</v>
       </c>
       <c r="F8" t="n">
         <v>0.00000987537003023509</v>
@@ -2045,7 +2045,7 @@
         <v>0.000238821474901292</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00000498863665898946</v>
+        <v>0.030786737685112</v>
       </c>
       <c r="F9" t="n">
         <v>0.00000498863665898946</v>
@@ -2095,7 +2095,7 @@
         <v>0.000188354003891042</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0000215441546965144</v>
+        <v>0.0269483390583636</v>
       </c>
       <c r="F10" t="n">
         <v>0.0000215441546965144</v>
@@ -2259,7 +2259,7 @@
         <v>0.0347831920410688</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0382247601009303</v>
+        <v>0.217049009196162</v>
       </c>
       <c r="F2" t="n">
         <v>0.0382247601009303</v>
@@ -2309,7 +2309,7 @@
         <v>0.0306900224990708</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0368325246136129</v>
+        <v>0.149883035956518</v>
       </c>
       <c r="F3" t="n">
         <v>0.0368325246136129</v>
@@ -2359,7 +2359,7 @@
         <v>0.0265398728702997</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0270646999322148</v>
+        <v>0.114215131597635</v>
       </c>
       <c r="F4" t="n">
         <v>0.0270646999322148</v>
@@ -2409,7 +2409,7 @@
         <v>0.0278394546251143</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0234318156589714</v>
+        <v>0.125503405739429</v>
       </c>
       <c r="F5" t="n">
         <v>0.0234318156589714</v>
@@ -2459,7 +2459,7 @@
         <v>0.0249437751333068</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0219463977150116</v>
+        <v>0.0806389680010334</v>
       </c>
       <c r="F6" t="n">
         <v>0.0219463977150116</v>
@@ -2509,7 +2509,7 @@
         <v>0.0219896440970743</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0184881930396316</v>
+        <v>0.0773574583910943</v>
       </c>
       <c r="F7" t="n">
         <v>0.0184881930396316</v>
@@ -2559,7 +2559,7 @@
         <v>0.00789740536986524</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00215179776308398</v>
+        <v>0.0472199986407755</v>
       </c>
       <c r="F8" t="n">
         <v>0.00215179776308398</v>
@@ -2609,7 +2609,7 @@
         <v>0.0072814661259211</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00108700101067471</v>
+        <v>0.0347675467239024</v>
       </c>
       <c r="F9" t="n">
         <v>0.00108700101067471</v>
@@ -2659,7 +2659,7 @@
         <v>0.00574275533463265</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00469437233658689</v>
+        <v>0.0304328326997863</v>
       </c>
       <c r="F10" t="n">
         <v>0.00469437233658689</v>
@@ -3987,236 +3987,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.95703025791659</v>
+        <v>0.872988515928525</v>
       </c>
       <c r="B2" t="n">
-        <v>20.1194114169769</v>
+        <v>3.54325356118446</v>
       </c>
       <c r="C2" t="n">
-        <v>119.065065374889</v>
+        <v>20.9686907911358</v>
       </c>
       <c r="D2" t="n">
-        <v>192.647133626622</v>
+        <v>33.9273166658605</v>
       </c>
       <c r="E2" t="n">
-        <v>87.0755935721253</v>
+        <v>15.3349867261198</v>
       </c>
       <c r="F2" t="n">
-        <v>65.9996820349892</v>
+        <v>11.6232827869999</v>
       </c>
       <c r="G2" t="n">
-        <v>56.8722983872297</v>
+        <v>10.0158483574355</v>
       </c>
       <c r="H2" t="n">
-        <v>51.74362387748</v>
+        <v>9.11263136742489</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.65081414558871</v>
+        <v>1.634382931695</v>
       </c>
       <c r="B3" t="n">
-        <v>24.1330204233247</v>
+        <v>5.93049148671369</v>
       </c>
       <c r="C3" t="n">
-        <v>134.503252937661</v>
+        <v>33.0530693004818</v>
       </c>
       <c r="D3" t="n">
-        <v>211.580986627265</v>
+        <v>51.9942890667231</v>
       </c>
       <c r="E3" t="n">
-        <v>94.2354801076998</v>
+        <v>23.1575949765884</v>
       </c>
       <c r="F3" t="n">
-        <v>70.824915414631</v>
+        <v>17.4046410497265</v>
       </c>
       <c r="G3" t="n">
-        <v>60.7100678851757</v>
+        <v>14.919000375223</v>
       </c>
       <c r="H3" t="n">
-        <v>55.0419320429302</v>
+        <v>13.5261025626688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10.5743196074288</v>
+        <v>2.50571691473078</v>
       </c>
       <c r="B4" t="n">
-        <v>35.136896455134</v>
+        <v>8.32612584519578</v>
       </c>
       <c r="C4" t="n">
-        <v>187.885521319113</v>
+        <v>44.5218175996468</v>
       </c>
       <c r="D4" t="n">
-        <v>289.775429476539</v>
+        <v>68.6659021165425</v>
       </c>
       <c r="E4" t="n">
-        <v>127.729230345077</v>
+        <v>30.2670341793297</v>
       </c>
       <c r="F4" t="n">
-        <v>95.4346214606385</v>
+        <v>22.6144238232457</v>
       </c>
       <c r="G4" t="n">
-        <v>81.5126896924693</v>
+        <v>19.3154484553438</v>
       </c>
       <c r="H4" t="n">
-        <v>73.7309923961637</v>
+        <v>17.47147822704</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.63602825448984</v>
+        <v>1.23896391377434</v>
       </c>
       <c r="B5" t="n">
-        <v>22.1485022542512</v>
+        <v>4.13518357439191</v>
       </c>
       <c r="C5" t="n">
-        <v>136.918177388438</v>
+        <v>25.5629835224489</v>
       </c>
       <c r="D5" t="n">
-        <v>225.282721724593</v>
+        <v>42.0608761610971</v>
       </c>
       <c r="E5" t="n">
-        <v>102.234477927829</v>
+        <v>19.0874456886828</v>
       </c>
       <c r="F5" t="n">
-        <v>77.5140032813943</v>
+        <v>14.4720681098451</v>
       </c>
       <c r="G5" t="n">
-        <v>66.7513983391404</v>
+        <v>12.4626614843323</v>
       </c>
       <c r="H5" t="n">
-        <v>60.6836430725925</v>
+        <v>11.3297956307578</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.85798340320687</v>
+        <v>2.41075538959352</v>
       </c>
       <c r="B6" t="n">
-        <v>27.7556683835805</v>
+        <v>7.55387813475275</v>
       </c>
       <c r="C6" t="n">
-        <v>159.944899356323</v>
+        <v>43.5300011988794</v>
       </c>
       <c r="D6" t="n">
-        <v>255.262999415835</v>
+        <v>69.4714161896878</v>
       </c>
       <c r="E6" t="n">
-        <v>114.183158369842</v>
+        <v>31.0756581843732</v>
       </c>
       <c r="F6" t="n">
-        <v>85.9354198327175</v>
+        <v>23.3878600905601</v>
       </c>
       <c r="G6" t="n">
-        <v>73.7003352064137</v>
+        <v>20.0580055556874</v>
       </c>
       <c r="H6" t="n">
-        <v>66.8353234380441</v>
+        <v>18.1896498174922</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12.0802429738161</v>
+        <v>2.88714066763183</v>
       </c>
       <c r="B7" t="n">
-        <v>35.6092262300962</v>
+        <v>8.51049481493465</v>
       </c>
       <c r="C7" t="n">
-        <v>196.378412972236</v>
+        <v>46.9338326692643</v>
       </c>
       <c r="D7" t="n">
-        <v>307.620782908157</v>
+        <v>73.5204146529116</v>
       </c>
       <c r="E7" t="n">
-        <v>136.440756721673</v>
+        <v>32.6089184056505</v>
       </c>
       <c r="F7" t="n">
-        <v>102.254979435302</v>
+        <v>24.4386234809528</v>
       </c>
       <c r="G7" t="n">
-        <v>87.4928687037983</v>
+        <v>20.9105247228907</v>
       </c>
       <c r="H7" t="n">
-        <v>79.2302520401578</v>
+        <v>18.9357849231735</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15.8636847199949</v>
+        <v>0.722902208329965</v>
       </c>
       <c r="B8" t="n">
-        <v>116.639484695382</v>
+        <v>5.31521790511152</v>
       </c>
       <c r="C8" t="n">
-        <v>626.741400084433</v>
+        <v>28.5603723327777</v>
       </c>
       <c r="D8" t="n">
-        <v>973.234585780455</v>
+        <v>44.3499378424369</v>
       </c>
       <c r="E8" t="n">
-        <v>435.451928045582</v>
+        <v>19.8433822886637</v>
       </c>
       <c r="F8" t="n">
-        <v>329.785034834964</v>
+        <v>15.0281812935858</v>
       </c>
       <c r="G8" t="n">
-        <v>284.642884945749</v>
+        <v>12.9710703247486</v>
       </c>
       <c r="H8" t="n">
-        <v>259.497881555291</v>
+        <v>11.8252218790521</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>46.6779176992064</v>
+        <v>1.45937658811991</v>
       </c>
       <c r="B9" t="n">
-        <v>258.203828779764</v>
+        <v>8.07269563977392</v>
       </c>
       <c r="C9" t="n">
-        <v>1333.46406310874</v>
+        <v>41.6905108608396</v>
       </c>
       <c r="D9" t="n">
-        <v>2023.86094041158</v>
+        <v>63.2756433798079</v>
       </c>
       <c r="E9" t="n">
-        <v>891.493248626499</v>
+        <v>27.8723739112851</v>
       </c>
       <c r="F9" t="n">
-        <v>667.643972108113</v>
+        <v>20.8737670855983</v>
       </c>
       <c r="G9" t="n">
-        <v>571.535946448998</v>
+        <v>17.8689671825443</v>
       </c>
       <c r="H9" t="n">
-        <v>517.854254852466</v>
+        <v>16.1906188802166</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13.4251228089168</v>
+        <v>2.07087278897646</v>
       </c>
       <c r="B10" t="n">
-        <v>62.5256671534447</v>
+        <v>9.64480582886492</v>
       </c>
       <c r="C10" t="n">
-        <v>310.965018032582</v>
+        <v>47.9674564868438</v>
       </c>
       <c r="D10" t="n">
-        <v>460.973443559955</v>
+        <v>71.1067879449897</v>
       </c>
       <c r="E10" t="n">
-        <v>199.874446908834</v>
+        <v>30.831342044805</v>
       </c>
       <c r="F10" t="n">
-        <v>148.116862803111</v>
+        <v>22.8475512018256</v>
       </c>
       <c r="G10" t="n">
-        <v>125.901607181785</v>
+        <v>19.4207692631305</v>
       </c>
       <c r="H10" t="n">
-        <v>113.528140824174</v>
+        <v>17.5121182101752</v>
       </c>
     </row>
     <row r="11">
